--- a/data/trans_orig/Q4504_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q4504_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>21140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13254</v>
+        <v>12851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31627</v>
+        <v>31110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07768626939905074</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04870933259163707</v>
+        <v>0.04722552670292111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1162283830109379</v>
+        <v>0.1143280658342785</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>12687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7281</v>
+        <v>6472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20799</v>
+        <v>21487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04887046227660159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02804667640209769</v>
+        <v>0.02493178139720323</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08011879794467784</v>
+        <v>0.08276653772344891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -785,19 +785,19 @@
         <v>33827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23848</v>
+        <v>23558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47018</v>
+        <v>46619</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06361726184692429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04484960218844687</v>
+        <v>0.04430453782956882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08842667060859098</v>
+        <v>0.08767594432028213</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>79777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65223</v>
+        <v>64897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94774</v>
+        <v>94688</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2931736417213286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2396911932336151</v>
+        <v>0.2384920063500567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3482868281713688</v>
+        <v>0.3479713840374468</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -835,19 +835,19 @@
         <v>91243</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75998</v>
+        <v>76698</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107679</v>
+        <v>107651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3514673763263338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2927423366921401</v>
+        <v>0.2954405428330553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4147777508979231</v>
+        <v>0.4146696346115193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -856,19 +856,19 @@
         <v>171020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150012</v>
+        <v>149591</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192364</v>
+        <v>193605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3216349299619951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2821248924372426</v>
+        <v>0.2813328047038336</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3617752730984233</v>
+        <v>0.3641101498038001</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>57897</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45850</v>
+        <v>47105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73419</v>
+        <v>73654</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2127667395050821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1684966478030481</v>
+        <v>0.1731086804326393</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2698098353372831</v>
+        <v>0.2706727089766987</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -906,19 +906,19 @@
         <v>57729</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43768</v>
+        <v>45065</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73509</v>
+        <v>74195</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2223712218305719</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.168594939533985</v>
+        <v>0.1735900438978128</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2831537121623575</v>
+        <v>0.2857971387750789</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>114</v>
@@ -927,19 +927,19 @@
         <v>115626</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98442</v>
+        <v>95688</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134848</v>
+        <v>137709</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2174560245838371</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1851386189275471</v>
+        <v>0.1799594304221977</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2536068219915559</v>
+        <v>0.258987629282826</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>50598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39346</v>
+        <v>37934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66688</v>
+        <v>63471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1859457984836727</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.144593480369218</v>
+        <v>0.1394064667565063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2450751063763621</v>
+        <v>0.2332533148480526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -977,19 +977,19 @@
         <v>33361</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23223</v>
+        <v>23496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45621</v>
+        <v>47107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1285057192544917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08945350150149099</v>
+        <v>0.09050572669021936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1757293725073423</v>
+        <v>0.1814548088710306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -998,19 +998,19 @@
         <v>83960</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68813</v>
+        <v>67016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103201</v>
+        <v>102686</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1579012982884825</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1294145469478366</v>
+        <v>0.1260352214411956</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1940883400824069</v>
+        <v>0.1931199505095494</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>62703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49981</v>
+        <v>49330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77660</v>
+        <v>77910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2304275508908658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1836756636977782</v>
+        <v>0.1812845286058653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2853948079846357</v>
+        <v>0.286312672717388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -1048,19 +1048,19 @@
         <v>64586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51851</v>
+        <v>51406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79501</v>
+        <v>79381</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.248785220312001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.199729770025718</v>
+        <v>0.1980148705557974</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3062378496037623</v>
+        <v>0.3057755677013382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>127</v>
@@ -1069,19 +1069,19 @@
         <v>127289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109546</v>
+        <v>107089</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148424</v>
+        <v>149630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2393904853187612</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2060219245075287</v>
+        <v>0.2014004421325205</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2791382824044775</v>
+        <v>0.2814069181569162</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>86799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68871</v>
+        <v>69000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104970</v>
+        <v>104382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1760360202658746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1396772821661115</v>
+        <v>0.1399390771058358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2128879336443922</v>
+        <v>0.2116958436492181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -1194,19 +1194,19 @@
         <v>107329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89802</v>
+        <v>89593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128553</v>
+        <v>127237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2129753741907228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.178196070640984</v>
+        <v>0.1777818735261373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2550905245470674</v>
+        <v>0.2524801471066367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1215,19 +1215,19 @@
         <v>194128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166906</v>
+        <v>169988</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220021</v>
+        <v>221472</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1947071350234242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1674045214013529</v>
+        <v>0.1704957564219075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2206781448463041</v>
+        <v>0.222132647404551</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>97991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80263</v>
+        <v>79970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117736</v>
+        <v>117318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1987349616760205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1627812185604234</v>
+        <v>0.1621864595412986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2387795036282115</v>
+        <v>0.2379308532002322</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -1265,19 +1265,19 @@
         <v>92712</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75236</v>
+        <v>76710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110414</v>
+        <v>111105</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1839704122236072</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1492926117100623</v>
+        <v>0.1522173859753095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2190985486091514</v>
+        <v>0.2204695857481484</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>185</v>
@@ -1286,19 +1286,19 @@
         <v>190703</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167415</v>
+        <v>165832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>217289</v>
+        <v>216709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1912721728646523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.167914255426247</v>
+        <v>0.1663267888418385</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2179380596895668</v>
+        <v>0.2173553861546105</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>119222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>100059</v>
+        <v>98471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>139939</v>
+        <v>138323</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2417927970852213</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2029276530129103</v>
+        <v>0.1997081644563976</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2838089776949773</v>
+        <v>0.2805307872178109</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1336,19 +1336,19 @@
         <v>95959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78938</v>
+        <v>80862</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113984</v>
+        <v>115857</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1904142835705289</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1566383621459522</v>
+        <v>0.1604566982635636</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2261820975565184</v>
+        <v>0.229897417296919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>212</v>
@@ -1357,19 +1357,19 @@
         <v>215181</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>189842</v>
+        <v>188265</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>243626</v>
+        <v>240879</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2158233628645584</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1904088425432839</v>
+        <v>0.1888273443113764</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2443527225527772</v>
+        <v>0.2415975404153037</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>27111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17674</v>
+        <v>18258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38844</v>
+        <v>40591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05498436318951437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03584450376812068</v>
+        <v>0.03702876856847364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07877916219062631</v>
+        <v>0.08232118955795255</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1407,19 +1407,19 @@
         <v>29270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20691</v>
+        <v>20347</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42025</v>
+        <v>39890</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0580812032569585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04105822526434439</v>
+        <v>0.04037461213407568</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08339185385651392</v>
+        <v>0.07915499281530369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1428,19 +1428,19 @@
         <v>56381</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44167</v>
+        <v>43408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72762</v>
+        <v>72597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05654967092073952</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04429920191970515</v>
+        <v>0.04353792395007606</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07297891720204668</v>
+        <v>0.07281338805251987</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>161951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137867</v>
+        <v>142409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182819</v>
+        <v>183642</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3284518577833692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2796066452752923</v>
+        <v>0.2888179624018227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3707738783985016</v>
+        <v>0.3724421804050158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>176</v>
@@ -1478,19 +1478,19 @@
         <v>178680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>158309</v>
+        <v>158124</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200983</v>
+        <v>200350</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3545587267581826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3141368632066918</v>
+        <v>0.3137698512552693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3988156209888683</v>
+        <v>0.397560371713724</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>333</v>
@@ -1499,19 +1499,19 @@
         <v>340631</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>309842</v>
+        <v>312747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>369850</v>
+        <v>371074</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3416476583266256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.310766632008088</v>
+        <v>0.313680364276646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3709536119619154</v>
+        <v>0.3721816725741112</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>17445</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10259</v>
+        <v>10430</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28156</v>
+        <v>28047</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05489219091310191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0322789495279797</v>
+        <v>0.03281985899858968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08859501469825541</v>
+        <v>0.08825025603230523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>3838</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9578</v>
+        <v>8660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01144306541549543</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002932220611679256</v>
+        <v>0.002937827030768546</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02855616999467768</v>
+        <v>0.02581868686754059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1645,19 +1645,19 @@
         <v>21283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12675</v>
+        <v>13113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33152</v>
+        <v>34390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03258219645505579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01940392622907433</v>
+        <v>0.02007497792323557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05075186864078068</v>
+        <v>0.05264688203207392</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>50373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38550</v>
+        <v>38068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64347</v>
+        <v>63538</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1585010997561034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1213007025664946</v>
+        <v>0.1197838308233964</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2024691081846419</v>
+        <v>0.1999255952680284</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1695,19 +1695,19 @@
         <v>27934</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19421</v>
+        <v>19376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38990</v>
+        <v>39364</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08328147452467019</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05790169372838135</v>
+        <v>0.05776815954437361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1162444319935765</v>
+        <v>0.1173604013312718</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -1716,19 +1716,19 @@
         <v>78307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63144</v>
+        <v>62847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96050</v>
+        <v>95935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.11987778103955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09666554475122154</v>
+        <v>0.09621033651911783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1470409317818815</v>
+        <v>0.1468643770573381</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>125625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>110358</v>
+        <v>108133</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>142940</v>
+        <v>142265</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.395285914258225</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3472468178893737</v>
+        <v>0.3402438390178378</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4497681066370454</v>
+        <v>0.4476436424774288</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>133</v>
@@ -1766,19 +1766,19 @@
         <v>132497</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114869</v>
+        <v>115681</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>150361</v>
+        <v>150146</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3950277217013748</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3424726476368605</v>
+        <v>0.3448923811423374</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.448286079737453</v>
+        <v>0.4476456675282803</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>256</v>
@@ -1787,19 +1787,19 @@
         <v>258122</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232774</v>
+        <v>232840</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>283572</v>
+        <v>283615</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3951533391040311</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3563480781049208</v>
+        <v>0.3564483079999861</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4341127644998787</v>
+        <v>0.4341791808974654</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>21203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13027</v>
+        <v>12483</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31971</v>
+        <v>31943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0667160739023059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04099110556906439</v>
+        <v>0.03927762666819245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.100597749139051</v>
+        <v>0.100509796642911</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1837,19 +1837,19 @@
         <v>27513</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17945</v>
+        <v>19232</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37614</v>
+        <v>39714</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08202636108701504</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05350074294807222</v>
+        <v>0.057339674221027</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1121420465259743</v>
+        <v>0.1184049213825498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1858,19 +1858,19 @@
         <v>48716</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37018</v>
+        <v>35943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64334</v>
+        <v>63176</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07457750766719887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05666926796094284</v>
+        <v>0.05502487121782746</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09848746625304386</v>
+        <v>0.09671405914761252</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>103162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>86325</v>
+        <v>87173</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>120419</v>
+        <v>119791</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3246047211702638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2716251064646766</v>
+        <v>0.2742932960005329</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3789030822216468</v>
+        <v>0.3769284280165578</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>141</v>
@@ -1908,19 +1908,19 @@
         <v>143631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126718</v>
+        <v>124013</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162078</v>
+        <v>159770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4282213772714445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3777975078748208</v>
+        <v>0.369732166298853</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4832208911626384</v>
+        <v>0.4763386476153627</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -1929,19 +1929,19 @@
         <v>246793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>220136</v>
+        <v>222631</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271478</v>
+        <v>271803</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3778091757341643</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.337000535627822</v>
+        <v>0.3408207688069483</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4155989200557917</v>
+        <v>0.4160969482744973</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>34061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24340</v>
+        <v>24930</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46771</v>
+        <v>47328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09496331054482818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06786213662733151</v>
+        <v>0.06950769501227673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1304006172233019</v>
+        <v>0.1319536730238221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2054,19 +2054,19 @@
         <v>43915</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33302</v>
+        <v>32462</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57717</v>
+        <v>56154</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1185235977527948</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08987907653323869</v>
+        <v>0.08761317866835917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1557737750979176</v>
+        <v>0.1515562750003331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -2075,19 +2075,19 @@
         <v>77976</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62289</v>
+        <v>63655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95813</v>
+        <v>98732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1069348158951861</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08542269637508122</v>
+        <v>0.08729515297785383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1313971326985091</v>
+        <v>0.13540018185648</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>72277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58567</v>
+        <v>59253</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89074</v>
+        <v>89880</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2015119827663945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1632898833789778</v>
+        <v>0.1652027851695793</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2483434553122345</v>
+        <v>0.2505912162838891</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -2125,19 +2125,19 @@
         <v>65611</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>52786</v>
+        <v>51706</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81466</v>
+        <v>80657</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1770801813932645</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1424673442120599</v>
+        <v>0.1395522136741028</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.219871557153332</v>
+        <v>0.2176882472969849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>137</v>
@@ -2146,19 +2146,19 @@
         <v>137888</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>118470</v>
+        <v>116867</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>161405</v>
+        <v>160146</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1890976417069864</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.162469001163556</v>
+        <v>0.1602695329391757</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2213493388351528</v>
+        <v>0.2196226179775523</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>110826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94292</v>
+        <v>93828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>128765</v>
+        <v>129070</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3089916504369997</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2628926040472918</v>
+        <v>0.2615999933722121</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3590054472995919</v>
+        <v>0.3598573240724518</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -2196,19 +2196,19 @@
         <v>110023</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92299</v>
+        <v>94329</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>128467</v>
+        <v>127032</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2969442025048774</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2491104629120122</v>
+        <v>0.25458694288957</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3467253627551032</v>
+        <v>0.3428514977943402</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>226</v>
@@ -2217,19 +2217,19 @@
         <v>220849</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>199465</v>
+        <v>193377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>245593</v>
+        <v>243738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3028700744942076</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2735434567662019</v>
+        <v>0.2651951577966355</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3368032759178878</v>
+        <v>0.3342601489712906</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>48253</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37229</v>
+        <v>36842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62199</v>
+        <v>63664</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1345322309099609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.10379677441605</v>
+        <v>0.1027190946971804</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1734148509791024</v>
+        <v>0.1775008928598564</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2267,19 +2267,19 @@
         <v>51595</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40461</v>
+        <v>40054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66549</v>
+        <v>66286</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1392513231399713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1092025851042878</v>
+        <v>0.1081042301874106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1796129949197491</v>
+        <v>0.1789016957922737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>104</v>
@@ -2288,19 +2288,19 @@
         <v>99848</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>81336</v>
+        <v>81930</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119727</v>
+        <v>117081</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1369301065123134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1115427139076268</v>
+        <v>0.1123574949561984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1641919801136253</v>
+        <v>0.1605638985135342</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>93255</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77697</v>
+        <v>77522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111131</v>
+        <v>111022</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2600008253418167</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2166241642835971</v>
+        <v>0.2161378191764079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3098412659839291</v>
+        <v>0.3095381489001239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>102</v>
@@ -2338,19 +2338,19 @@
         <v>99373</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>82731</v>
+        <v>84134</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>116803</v>
+        <v>115179</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.268200695209092</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2232850607737968</v>
+        <v>0.2270714660411051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3152429532815282</v>
+        <v>0.3108614697693535</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>199</v>
@@ -2359,19 +2359,19 @@
         <v>192628</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>168591</v>
+        <v>170593</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>216133</v>
+        <v>217055</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2641673613913065</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2312030915980374</v>
+        <v>0.2339488857821308</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2964023035041329</v>
+        <v>0.2976672938256731</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>75221</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61829</v>
+        <v>63023</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88349</v>
+        <v>90179</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.369984922219608</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3041129639535516</v>
+        <v>0.3099872822750132</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4345568366808915</v>
+        <v>0.4435605196332537</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -2484,19 +2484,19 @@
         <v>94703</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>79311</v>
+        <v>80684</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109788</v>
+        <v>109969</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4560317707553749</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3819107164706922</v>
+        <v>0.3885254366996488</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5286698159705896</v>
+        <v>0.5295414390259024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>164</v>
@@ -2505,19 +2505,19 @@
         <v>169924</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>148535</v>
+        <v>150872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>189484</v>
+        <v>190747</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4134647724827563</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.36142016735324</v>
+        <v>0.3671061597512471</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4610596934192832</v>
+        <v>0.4641322311967613</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>45402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34721</v>
+        <v>34647</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58422</v>
+        <v>58017</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2233160916729304</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1707801012017284</v>
+        <v>0.170415105967138</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2873559577981687</v>
+        <v>0.2853663662951968</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>51</v>
@@ -2555,19 +2555,19 @@
         <v>53596</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>41248</v>
+        <v>41371</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>67551</v>
+        <v>66467</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2580845616837421</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1986239422192523</v>
+        <v>0.1992163242848546</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3252829104925214</v>
+        <v>0.3200640259538922</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>98</v>
@@ -2576,19 +2576,19 @@
         <v>98998</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84089</v>
+        <v>81656</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118802</v>
+        <v>117488</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2408847521837273</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2046068907997697</v>
+        <v>0.1986883572873737</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2890719155289428</v>
+        <v>0.285875818457635</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>33434</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24024</v>
+        <v>23011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44875</v>
+        <v>45038</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1644475683429256</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1181631405755166</v>
+        <v>0.1131844879289274</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2207240166451165</v>
+        <v>0.2215245589050355</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -2626,19 +2626,19 @@
         <v>24498</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15919</v>
+        <v>16461</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34343</v>
+        <v>34234</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1179685148173804</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07665569558011336</v>
+        <v>0.07926664053130646</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1653762846201538</v>
+        <v>0.1648490761031144</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -2647,19 +2647,19 @@
         <v>57932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>43720</v>
+        <v>44818</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>72890</v>
+        <v>72508</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1409614985791558</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1063807060698442</v>
+        <v>0.1090516628541989</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1773572493282345</v>
+        <v>0.17642868563821</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>10144</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5494</v>
+        <v>5569</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17026</v>
+        <v>17795</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04989684967240037</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02702106019926936</v>
+        <v>0.0273900769923023</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08374672882616864</v>
+        <v>0.08752692912906627</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2697,19 +2697,19 @@
         <v>8017</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3549</v>
+        <v>3368</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16977</v>
+        <v>15777</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03860303715181773</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01708768243406154</v>
+        <v>0.01621979995581502</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08175032848278024</v>
+        <v>0.07597097348023685</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -2718,19 +2718,19 @@
         <v>18161</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11251</v>
+        <v>10471</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28339</v>
+        <v>27856</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04419003663216582</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0273768996062954</v>
+        <v>0.02547859716655603</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06895624191723758</v>
+        <v>0.06778096037870487</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>39107</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>29713</v>
+        <v>28729</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>51910</v>
+        <v>50875</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1923545680921355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1461489952257605</v>
+        <v>0.1413098206539404</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2553265304411757</v>
+        <v>0.2502343671825668</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -2768,19 +2768,19 @@
         <v>26854</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18055</v>
+        <v>18275</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37365</v>
+        <v>38083</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.129312115591685</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08694207881461317</v>
+        <v>0.08800258829988149</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1799254799591922</v>
+        <v>0.1833846403554779</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>66</v>
@@ -2789,19 +2789,19 @@
         <v>65961</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>51662</v>
+        <v>53743</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>80907</v>
+        <v>82897</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1604989401221948</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.12570571384705</v>
+        <v>0.1307698500483248</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1968653464302041</v>
+        <v>0.201707381881796</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>9103</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4900</v>
+        <v>4067</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17092</v>
+        <v>17112</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03361204504248468</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01809221138367874</v>
+        <v>0.01501695587847185</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06311545097554123</v>
+        <v>0.06318732191812755</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2914,19 +2914,19 @@
         <v>7844</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3764</v>
+        <v>3826</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14679</v>
+        <v>14774</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02820294794908604</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01353126304874187</v>
+        <v>0.01375413048041749</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05277591979516909</v>
+        <v>0.05311659165405749</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -2935,19 +2935,19 @@
         <v>16947</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10104</v>
+        <v>10063</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26361</v>
+        <v>25874</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0308713688650378</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01840538579526015</v>
+        <v>0.0183319879886075</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04801947064589435</v>
+        <v>0.04713331518568253</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>54913</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>42495</v>
+        <v>42777</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68092</v>
+        <v>68306</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2027735625482217</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1569184602096972</v>
+        <v>0.1579601897009401</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2514374313858204</v>
+        <v>0.2522261816348607</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>31</v>
@@ -2985,19 +2985,19 @@
         <v>31806</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>22006</v>
+        <v>22784</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>42705</v>
+        <v>43708</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1143494624150603</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0791185298991285</v>
+        <v>0.08191290294522872</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1535351687262772</v>
+        <v>0.1571401625201952</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>85</v>
@@ -3006,19 +3006,19 @@
         <v>86719</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>71531</v>
+        <v>69638</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>104518</v>
+        <v>104221</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1579709234824723</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1303036865623788</v>
+        <v>0.1268552825499422</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1903944869264458</v>
+        <v>0.1898542195970562</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>96721</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>81777</v>
+        <v>81997</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114035</v>
+        <v>113433</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3571549486866784</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.301970988329712</v>
+        <v>0.3027821605291334</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4210876207655838</v>
+        <v>0.4188622361620399</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>110</v>
@@ -3056,19 +3056,19 @@
         <v>113270</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>98119</v>
+        <v>97227</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>130962</v>
+        <v>128673</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4072345330508427</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3527637084144996</v>
+        <v>0.3495575506936756</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4708422043942051</v>
+        <v>0.4626140549356939</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>204</v>
@@ -3077,19 +3077,19 @@
         <v>209991</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>184924</v>
+        <v>185927</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>230618</v>
+        <v>233363</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3825292249241694</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3368658654040536</v>
+        <v>0.3386925542746834</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4201041830387006</v>
+        <v>0.4251041234624581</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>19782</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12250</v>
+        <v>12654</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29381</v>
+        <v>30982</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07304856132572569</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04523356647866118</v>
+        <v>0.04672779731196405</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1084924202123528</v>
+        <v>0.1144056658609021</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>24</v>
@@ -3127,19 +3127,19 @@
         <v>24370</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15541</v>
+        <v>16059</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34370</v>
+        <v>34697</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0876158562714871</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05587510326154863</v>
+        <v>0.05773705327580957</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1235704052004553</v>
+        <v>0.1247446338037435</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>43</v>
@@ -3148,19 +3148,19 @@
         <v>44152</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>32608</v>
+        <v>32782</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>59701</v>
+        <v>57850</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08042950449208427</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05940045741087391</v>
+        <v>0.05971631726708714</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1087548007057522</v>
+        <v>0.1053812586001776</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>90291</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>75763</v>
+        <v>76757</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>104748</v>
+        <v>106580</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3334108823968895</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2797633738963441</v>
+        <v>0.283434046304417</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3867936954084996</v>
+        <v>0.3935571259101021</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>97</v>
@@ -3198,19 +3198,19 @@
         <v>100854</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>84716</v>
+        <v>85985</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>116785</v>
+        <v>117394</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3625972003135238</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3045743037919998</v>
+        <v>0.3091383426660277</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4198721781000613</v>
+        <v>0.422063291417727</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>187</v>
@@ -3219,19 +3219,19 @@
         <v>191146</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>171468</v>
+        <v>171041</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>212919</v>
+        <v>215146</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3481989782362362</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3123537106306813</v>
+        <v>0.3115760224078514</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3878629864334069</v>
+        <v>0.3919193926899465</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>120940</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>103261</v>
+        <v>102336</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>143960</v>
+        <v>143831</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1966421597131066</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1678962562026001</v>
+        <v>0.1663933031676293</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2340706623966078</v>
+        <v>0.233861253973273</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>114</v>
@@ -3344,19 +3344,19 @@
         <v>118831</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>98599</v>
+        <v>100346</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>139119</v>
+        <v>139303</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.186190925232777</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1544904244575522</v>
+        <v>0.1572276345286572</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2179797628049068</v>
+        <v>0.2182686228799887</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>227</v>
@@ -3365,19 +3365,19 @@
         <v>239771</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>210264</v>
+        <v>210408</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>270022</v>
+        <v>267301</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1913198394385949</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1677752701286767</v>
+        <v>0.1678907621676089</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.215458063204806</v>
+        <v>0.2132865972761966</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>95019</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>78351</v>
+        <v>78311</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>112674</v>
+        <v>113374</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1544964419045129</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1273938558151754</v>
+        <v>0.1273299440726042</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1832015564084415</v>
+        <v>0.1843400722207388</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>62</v>
@@ -3415,19 +3415,19 @@
         <v>62691</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>49475</v>
+        <v>48822</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>77278</v>
+        <v>79558</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09822853490956687</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07751990057891246</v>
+        <v>0.07649801773017673</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1210832920200911</v>
+        <v>0.1246570114425638</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>156</v>
@@ -3436,19 +3436,19 @@
         <v>157711</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>135559</v>
+        <v>135398</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>183288</v>
+        <v>181060</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1258418535142912</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1081661369292892</v>
+        <v>0.1080378683007908</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.146250903256795</v>
+        <v>0.144472533388754</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>240956</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>218279</v>
+        <v>215154</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>265459</v>
+        <v>266591</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3917805483686229</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3549092663420431</v>
+        <v>0.349829200649851</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4316212185082507</v>
+        <v>0.4334623487425969</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>206</v>
@@ -3486,19 +3486,19 @@
         <v>212312</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>187247</v>
+        <v>187490</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>234546</v>
+        <v>236482</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3326627723664183</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2933896804516252</v>
+        <v>0.2937701719479652</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3675002550075205</v>
+        <v>0.3705347548791015</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>436</v>
@@ -3507,19 +3507,19 @@
         <v>453267</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>419547</v>
+        <v>417193</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>487874</v>
+        <v>488387</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3616746562471929</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3347679104891791</v>
+        <v>0.3328898058177119</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3892882042896499</v>
+        <v>0.3896974642945124</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>24824</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>16903</v>
+        <v>16910</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>36088</v>
+        <v>35717</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04036299997767819</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02748302712233703</v>
+        <v>0.02749392497283244</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05867730470074016</v>
+        <v>0.05807344234127105</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>21</v>
@@ -3557,19 +3557,19 @@
         <v>21359</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>13847</v>
+        <v>14390</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>32327</v>
+        <v>33179</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03346620892104561</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02169667923781916</v>
+        <v>0.02254652154926368</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05065262307161226</v>
+        <v>0.05198723471844696</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>46</v>
@@ -3578,19 +3578,19 @@
         <v>46183</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>34027</v>
+        <v>33883</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>60856</v>
+        <v>60486</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03685078991877339</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02715148492143439</v>
+        <v>0.02703635427443139</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04855877555603061</v>
+        <v>0.04826385894583512</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>133287</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>113921</v>
+        <v>113384</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>155773</v>
+        <v>154990</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2167178500360794</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1852295307306797</v>
+        <v>0.1843565392600248</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2532784503381267</v>
+        <v>0.2520048301182709</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>218</v>
@@ -3628,19 +3628,19 @@
         <v>223027</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>200195</v>
+        <v>200642</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>249484</v>
+        <v>248447</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3494515585701923</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3136769822949665</v>
+        <v>0.3143778681498027</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3909071815592643</v>
+        <v>0.3892810647207276</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>354</v>
@@ -3649,19 +3649,19 @@
         <v>356314</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>323700</v>
+        <v>324856</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>388073</v>
+        <v>388007</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2843128608811477</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2582894879125564</v>
+        <v>0.2592120544024328</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3096540711193612</v>
+        <v>0.3096012476954064</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>174238</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>153135</v>
+        <v>152505</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>200826</v>
+        <v>198371</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.234576148142326</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2061648701614554</v>
+        <v>0.2053169257936757</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2703716288950065</v>
+        <v>0.2670661381193862</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>198</v>
@@ -3774,19 +3774,19 @@
         <v>209076</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>187027</v>
+        <v>186851</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>235435</v>
+        <v>235747</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2675920104274317</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2393720845885697</v>
+        <v>0.2391466585936133</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.301328476346083</v>
+        <v>0.301727858071391</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>369</v>
@@ -3795,19 +3795,19 @@
         <v>383313</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>349092</v>
+        <v>348010</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>417818</v>
+        <v>417704</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2515015784192086</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2290483201461201</v>
+        <v>0.2283383018513851</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2741409619124617</v>
+        <v>0.2740660499830593</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>203263</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>179824</v>
+        <v>180769</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>227609</v>
+        <v>229811</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2736528069528426</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2420967116627582</v>
+        <v>0.2433695875831087</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3064296303803086</v>
+        <v>0.3093945112922843</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>197</v>
@@ -3845,19 +3845,19 @@
         <v>203910</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>179346</v>
+        <v>177706</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>233260</v>
+        <v>229242</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2609808921621633</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2295408894005702</v>
+        <v>0.2274421997541547</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2985445396664381</v>
+        <v>0.2934026033478306</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>403</v>
@@ -3866,19 +3866,19 @@
         <v>407173</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>374830</v>
+        <v>373571</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>444164</v>
+        <v>440975</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2671566079921087</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2459356409039702</v>
+        <v>0.2451097296023883</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.291427130521775</v>
+        <v>0.2893349982585196</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>157012</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>133179</v>
+        <v>137190</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>181427</v>
+        <v>177876</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2113856012490214</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1792981358465307</v>
+        <v>0.1846981051888103</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2442545939506986</v>
+        <v>0.2394738280072758</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>115</v>
@@ -3916,19 +3916,19 @@
         <v>119301</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>99586</v>
+        <v>101070</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>139842</v>
+        <v>141449</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.15269153437994</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1274585250461178</v>
+        <v>0.1293569317080446</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1789804162443653</v>
+        <v>0.1810374684775661</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>267</v>
@@ -3937,19 +3937,19 @@
         <v>276314</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>242249</v>
+        <v>248732</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>305937</v>
+        <v>307328</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1812963572401658</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1589456991925547</v>
+        <v>0.1631996739321784</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2007331948705263</v>
+        <v>0.2016460136907125</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>58064</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>44454</v>
+        <v>43973</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>75117</v>
+        <v>73856</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.07817161498263681</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05984873690048353</v>
+        <v>0.05920090438958136</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.101130615528603</v>
+        <v>0.09943234237556103</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>79</v>
@@ -3987,19 +3987,19 @@
         <v>82709</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>66283</v>
+        <v>67807</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>102151</v>
+        <v>104810</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1058578337222884</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08483486454524433</v>
+        <v>0.08678467788933818</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1307408392603085</v>
+        <v>0.1341437202383822</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>136</v>
@@ -4008,19 +4008,19 @@
         <v>140773</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>120013</v>
+        <v>117809</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>163514</v>
+        <v>163886</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.09236482795590178</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07874389467473292</v>
+        <v>0.07729725739683309</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1072858868209023</v>
+        <v>0.1075296998750731</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>150200</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>129631</v>
+        <v>128030</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>173018</v>
+        <v>170793</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2022138286731731</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.174522604317015</v>
+        <v>0.172366653056936</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2329337638240298</v>
+        <v>0.2299387836536513</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>154</v>
@@ -4058,19 +4058,19 @@
         <v>166326</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>142832</v>
+        <v>143280</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>190465</v>
+        <v>190997</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2128777293081766</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1828075455735949</v>
+        <v>0.1833815944085395</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2437729913908418</v>
+        <v>0.2444527094168759</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>303</v>
@@ -4079,19 +4079,19 @@
         <v>316526</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>286787</v>
+        <v>285285</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>351688</v>
+        <v>348632</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2076806283926152</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1881682969455681</v>
+        <v>0.1871825982065588</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2307515249744329</v>
+        <v>0.2287466097919602</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>538946</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>493207</v>
+        <v>497650</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>585137</v>
+        <v>584619</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1646343429862602</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1506623959640617</v>
+        <v>0.1520195665891612</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1787446296210097</v>
+        <v>0.1785864470509761</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>573</v>
@@ -4204,19 +4204,19 @@
         <v>598223</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>551506</v>
+        <v>552866</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>640401</v>
+        <v>641057</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1772597150113147</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1634170545988724</v>
+        <v>0.1638200389919868</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1897576831616617</v>
+        <v>0.189952036538208</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1086</v>
@@ -4225,19 +4225,19 @@
         <v>1137169</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1073009</v>
+        <v>1081305</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1202181</v>
+        <v>1205856</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.17104316203509</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1613928857028223</v>
+        <v>0.162640628267027</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.180821722234839</v>
+        <v>0.1813745638805718</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>699015</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>654235</v>
+        <v>651895</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>745577</v>
+        <v>744415</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2135315655955177</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1998524352929617</v>
+        <v>0.1991375546098659</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2277549912145411</v>
+        <v>0.2274000544981993</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>613</v>
@@ -4275,19 +4275,19 @@
         <v>629503</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>588206</v>
+        <v>587722</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>679890</v>
+        <v>677428</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1865283480379165</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1742917212018835</v>
+        <v>0.1741483287074751</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2014584640586563</v>
+        <v>0.2007290196185448</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1306</v>
@@ -4296,19 +4296,19 @@
         <v>1328518</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1261865</v>
+        <v>1266827</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1388380</v>
+        <v>1398619</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1998243469314321</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1897989762882079</v>
+        <v>0.1905452000985041</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2088282313159887</v>
+        <v>0.2103683508142682</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>941694</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>887937</v>
+        <v>891015</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>994143</v>
+        <v>994129</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2876636855012787</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.271242328991928</v>
+        <v>0.2721826881450262</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.303685770985393</v>
+        <v>0.3036814559788273</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>854</v>
@@ -4346,19 +4346,19 @@
         <v>865589</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>814609</v>
+        <v>817275</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>918157</v>
+        <v>916881</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2564831653994213</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2413772389163388</v>
+        <v>0.2421672316419511</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2720596914688882</v>
+        <v>0.271681344445668</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1773</v>
@@ -4367,19 +4367,19 @@
         <v>1807283</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1738665</v>
+        <v>1733034</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1881904</v>
+        <v>1878748</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2718360084407809</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.261515133184835</v>
+        <v>0.2606681113836883</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2830598992853187</v>
+        <v>0.2825851174573193</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>259981</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>230240</v>
+        <v>228589</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>292714</v>
+        <v>291146</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.07941761500489396</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.07033267861131454</v>
+        <v>0.06982813243014381</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.08941669641593165</v>
+        <v>0.08893783391211622</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>274</v>
@@ -4417,19 +4417,19 @@
         <v>278193</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>247744</v>
+        <v>248237</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>311215</v>
+        <v>310843</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.08243145639437158</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.07340901281700817</v>
+        <v>0.073555355684101</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.09221629063709896</v>
+        <v>0.09210612798457236</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>528</v>
@@ -4438,19 +4438,19 @@
         <v>538174</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>491187</v>
+        <v>497383</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>582111</v>
+        <v>582144</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.08094748391241652</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.07388010983874295</v>
+        <v>0.07481215764990927</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.08755609965993812</v>
+        <v>0.08756104186625385</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>833957</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>782822</v>
+        <v>786951</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>887269</v>
+        <v>880013</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2547527909120494</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2391325677152694</v>
+        <v>0.2403938753001612</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2710383277379343</v>
+        <v>0.268821895803565</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>979</v>
@@ -4488,19 +4488,19 @@
         <v>1003330</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>952820</v>
+        <v>951719</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1058658</v>
+        <v>1054788</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.297297315156976</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2823304767812121</v>
+        <v>0.2820043790247586</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3136915017433088</v>
+        <v>0.3125446415242165</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1811</v>
@@ -4509,19 +4509,19 @@
         <v>1837287</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1766154</v>
+        <v>1763131</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1914324</v>
+        <v>1905916</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2763489986802805</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2656497779222571</v>
+        <v>0.2651950322568905</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2879361565293871</v>
+        <v>0.2866715569589028</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>83708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67722</v>
+        <v>68793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100221</v>
+        <v>99848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2857157904015754</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2311512944622492</v>
+        <v>0.2348058916292523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3420792882006143</v>
+        <v>0.340803374866765</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -4878,19 +4878,19 @@
         <v>111136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94352</v>
+        <v>95237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128536</v>
+        <v>129566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3911862338153342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3321106100329384</v>
+        <v>0.3352256237684868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4524344966013339</v>
+        <v>0.4560610704590922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -4899,19 +4899,19 @@
         <v>194844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171761</v>
+        <v>172118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>218060</v>
+        <v>218940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3376396391795052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2976394757217858</v>
+        <v>0.29825912171869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3778698319352856</v>
+        <v>0.3793961303044629</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>35138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25009</v>
+        <v>25018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49485</v>
+        <v>48810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1199350875683053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08536211261492491</v>
+        <v>0.0853918211279192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1689041402002963</v>
+        <v>0.1665984525875073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -4949,19 +4949,19 @@
         <v>27651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18707</v>
+        <v>17717</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38844</v>
+        <v>38769</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09732967649092475</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0658452522458957</v>
+        <v>0.06236141084889915</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1367266877271153</v>
+        <v>0.1364623036138536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -4970,19 +4970,19 @@
         <v>62789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49125</v>
+        <v>49455</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81849</v>
+        <v>78323</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1088062830582095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0851282141751183</v>
+        <v>0.08569901804594213</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1418338188698199</v>
+        <v>0.1357235772929156</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>38414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27325</v>
+        <v>27177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52055</v>
+        <v>52124</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1311158278237516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09326773042276335</v>
+        <v>0.09276230168472083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1776749259878532</v>
+        <v>0.1779125122153525</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -5020,19 +5020,19 @@
         <v>25204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16621</v>
+        <v>16987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37148</v>
+        <v>37005</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08871538488656783</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05850363693769008</v>
+        <v>0.05979105939446867</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1307582580845221</v>
+        <v>0.1302541197330413</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -5041,19 +5041,19 @@
         <v>63618</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48931</v>
+        <v>49117</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79909</v>
+        <v>81587</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1102417884632574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08479141847326731</v>
+        <v>0.0851141043076919</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.138471396877354</v>
+        <v>0.1413802001300338</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>7373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3393</v>
+        <v>3709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15133</v>
+        <v>14569</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02516674605551545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01158206465019582</v>
+        <v>0.01266037499100839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05165112989954983</v>
+        <v>0.04972597944441547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -5091,19 +5091,19 @@
         <v>7396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3125</v>
+        <v>2247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14886</v>
+        <v>15309</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02603317474300455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01099982941570198</v>
+        <v>0.007908947905824422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05239879492756354</v>
+        <v>0.05388748224620252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -5112,19 +5112,19 @@
         <v>14769</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8183</v>
+        <v>8691</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23816</v>
+        <v>24301</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02559329505531016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01418052975594487</v>
+        <v>0.01506114171693699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04126951260279112</v>
+        <v>0.04211141711359186</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>128343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>109816</v>
+        <v>111888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146403</v>
+        <v>146762</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4380665481508523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3748268157489778</v>
+        <v>0.3819009139348469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4997092241737122</v>
+        <v>0.5009347512347697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -5162,19 +5162,19 @@
         <v>112712</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>95866</v>
+        <v>94468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>130383</v>
+        <v>130704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3967355300641686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3374394058614203</v>
+        <v>0.3325175291100941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4589342461112332</v>
+        <v>0.4600663243640816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>222</v>
@@ -5183,19 +5183,19 @@
         <v>241056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>218580</v>
+        <v>214285</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>268697</v>
+        <v>261868</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4177189942437177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3787715947577271</v>
+        <v>0.3713288643559409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4656183640346147</v>
+        <v>0.4537849445120358</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>105189</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88116</v>
+        <v>86925</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126019</v>
+        <v>126084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.208475388395361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1746376459200294</v>
+        <v>0.1722773889334457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2497575907168051</v>
+        <v>0.2498876834380392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -5308,19 +5308,19 @@
         <v>84486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66998</v>
+        <v>67551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103703</v>
+        <v>102980</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1616220677053404</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1281678093768305</v>
+        <v>0.1292253176986465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1983852455916989</v>
+        <v>0.1970009330223849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -5329,19 +5329,19 @@
         <v>189675</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164144</v>
+        <v>163688</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216684</v>
+        <v>215933</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1846343125236265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1597820106281673</v>
+        <v>0.1593383955361293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2109255296112387</v>
+        <v>0.2101948277506121</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>100676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81741</v>
+        <v>82411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>120258</v>
+        <v>121364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1995304119452453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1620025350824977</v>
+        <v>0.1633315480036254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2383403650909469</v>
+        <v>0.2405318566052621</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -5379,19 +5379,19 @@
         <v>99153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81311</v>
+        <v>81966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118586</v>
+        <v>118690</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1896803112909985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1555487496727103</v>
+        <v>0.1568019059813485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2268565906328246</v>
+        <v>0.227055470096191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -5400,19 +5400,19 @@
         <v>199829</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174653</v>
+        <v>173548</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230358</v>
+        <v>228244</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1945182379182261</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1700114874031949</v>
+        <v>0.1689356193270378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2242363024408143</v>
+        <v>0.2221780795760239</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>87224</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71349</v>
+        <v>71456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106299</v>
+        <v>106423</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1728702902367521</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1414080552147913</v>
+        <v>0.1416192370102118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2106755843848024</v>
+        <v>0.2109210049971916</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -5450,19 +5450,19 @@
         <v>76480</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>61934</v>
+        <v>61982</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>95693</v>
+        <v>94868</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.14630712790367</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1184800415915537</v>
+        <v>0.1185713010788137</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1830611312854204</v>
+        <v>0.1814823872787926</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>160</v>
@@ -5471,19 +5471,19 @@
         <v>163704</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>141287</v>
+        <v>140856</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>191829</v>
+        <v>187286</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1593537590869953</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.137532571127663</v>
+        <v>0.137112391832231</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1867307987129701</v>
+        <v>0.1823093955403124</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>12384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6318</v>
+        <v>6125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21632</v>
+        <v>22684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02454377411597085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01252210966927625</v>
+        <v>0.01213987191093571</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.042873019496417</v>
+        <v>0.04495779070630435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -5521,19 +5521,19 @@
         <v>12050</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6213</v>
+        <v>6856</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21104</v>
+        <v>21000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02305217520979021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01188533439297759</v>
+        <v>0.0131156894457086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04037265837462162</v>
+        <v>0.04017270829080338</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -5542,19 +5542,19 @@
         <v>24434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15745</v>
+        <v>15204</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35638</v>
+        <v>36191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0237847815372437</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01532630718756625</v>
+        <v>0.01479957281210551</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03469087376001445</v>
+        <v>0.03522908107471134</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>199091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176236</v>
+        <v>176832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>219278</v>
+        <v>219947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3945801353066708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3492829370626592</v>
+        <v>0.3504645657678238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4345882804586265</v>
+        <v>0.4359154308708965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>228</v>
@@ -5592,19 +5592,19 @@
         <v>250568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225868</v>
+        <v>228492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273279</v>
+        <v>277273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4793383178902009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4320879965847393</v>
+        <v>0.4371060604482582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.522784682899963</v>
+        <v>0.5304260879227312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>414</v>
@@ -5613,19 +5613,19 @@
         <v>449658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>414959</v>
+        <v>419117</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>481531</v>
+        <v>486259</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4377089089339085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4039321133201871</v>
+        <v>0.4079789146116093</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4687343120099169</v>
+        <v>0.4733366559138127</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>109263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92441</v>
+        <v>92778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125257</v>
+        <v>125693</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3381584997158331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2860953719992205</v>
+        <v>0.287139145470428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3876589772523288</v>
+        <v>0.3890099725038844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -5738,19 +5738,19 @@
         <v>106081</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88984</v>
+        <v>87916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124628</v>
+        <v>124846</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3110686593708262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2609355031885341</v>
+        <v>0.2578018291920545</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3654576830171126</v>
+        <v>0.3660962578031658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -5759,19 +5759,19 @@
         <v>215343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>191807</v>
+        <v>192241</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>237540</v>
+        <v>239737</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3242483231293865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2888090036613954</v>
+        <v>0.2894620996901328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3576707265951374</v>
+        <v>0.3609778840965445</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>82216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66742</v>
+        <v>66159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98911</v>
+        <v>97694</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2544498626826865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2065596785544511</v>
+        <v>0.2047549934421783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3061212620624106</v>
+        <v>0.3023550562358917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -5809,19 +5809,19 @@
         <v>84511</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68362</v>
+        <v>68661</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102994</v>
+        <v>102745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2478194723869018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2004640269483706</v>
+        <v>0.2013405087511446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3020172821004311</v>
+        <v>0.3012880361140191</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>158</v>
@@ -5830,19 +5830,19 @@
         <v>166727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145903</v>
+        <v>145885</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190750</v>
+        <v>190906</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2510452689797772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2196893462254882</v>
+        <v>0.2196624668043118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2872170744014459</v>
+        <v>0.2874517979955565</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>77219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61727</v>
+        <v>63313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92446</v>
+        <v>93039</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.238986015071751</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1910385985123579</v>
+        <v>0.1959467099599872</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2861127516852017</v>
+        <v>0.2879471393446216</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -5880,19 +5880,19 @@
         <v>80221</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64536</v>
+        <v>64569</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>98827</v>
+        <v>98736</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2352375847867609</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1892449447381344</v>
+        <v>0.1893398437209788</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2897994514468945</v>
+        <v>0.2895300504996376</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -5901,19 +5901,19 @@
         <v>157440</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>137297</v>
+        <v>137781</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>182639</v>
+        <v>179293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2370612592768795</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2067315217532279</v>
+        <v>0.2074599790043637</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2750043405320705</v>
+        <v>0.2699665155077824</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>4850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1910</v>
+        <v>1942</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10830</v>
+        <v>11744</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0150100295588948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005912100798189796</v>
+        <v>0.006011691446626716</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03351783959708626</v>
+        <v>0.0363475065136329</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -5951,19 +5951,19 @@
         <v>10078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5113</v>
+        <v>4991</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18158</v>
+        <v>18128</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02955202061848552</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01499467082038602</v>
+        <v>0.01463556904692566</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05324538674463793</v>
+        <v>0.05315814600170098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -5972,19 +5972,19 @@
         <v>14928</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8152</v>
+        <v>8837</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24056</v>
+        <v>23816</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02247709695321107</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01227521799620999</v>
+        <v>0.01330571492385878</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03622210959828868</v>
+        <v>0.03586078810505165</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>49564</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36994</v>
+        <v>38038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63443</v>
+        <v>62938</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1533955929708346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1144924070481977</v>
+        <v>0.1177245074333964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1963497375130251</v>
+        <v>0.1947879752078051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -6022,19 +6022,19 @@
         <v>60129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46469</v>
+        <v>46917</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75655</v>
+        <v>75537</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1763222628370255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.136266108791483</v>
+        <v>0.137579014182354</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2218486255941981</v>
+        <v>0.2215040765553409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -6043,19 +6043,19 @@
         <v>109693</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>92184</v>
+        <v>92170</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129006</v>
+        <v>129295</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1651680516607457</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1388037640411612</v>
+        <v>0.1387824504351072</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1942477589724981</v>
+        <v>0.1946823167856155</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>73966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57294</v>
+        <v>59541</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89582</v>
+        <v>90591</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1982922079432928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1535950285946646</v>
+        <v>0.1596210595371558</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2401562083113298</v>
+        <v>0.2428595096060842</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -6168,19 +6168,19 @@
         <v>89121</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74493</v>
+        <v>72238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105558</v>
+        <v>105435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2291317969722483</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1915217268495924</v>
+        <v>0.1857258238877467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2713921703852109</v>
+        <v>0.2710753934405374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>153</v>
@@ -6189,19 +6189,19 @@
         <v>163087</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141874</v>
+        <v>140186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188430</v>
+        <v>186210</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2140344605907743</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1861938329722804</v>
+        <v>0.1839788110554005</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2472939382290814</v>
+        <v>0.2443808892857447</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>78854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>63516</v>
+        <v>64265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96447</v>
+        <v>96307</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2113953257784952</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1702765331763073</v>
+        <v>0.1722855435153146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2585584288763015</v>
+        <v>0.2581842244591354</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -6239,19 +6239,19 @@
         <v>90799</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>75074</v>
+        <v>72558</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109267</v>
+        <v>108546</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2334466097216059</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1930170659165876</v>
+        <v>0.1865477048116349</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2809263023272587</v>
+        <v>0.2790724540473261</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>159</v>
@@ -6260,19 +6260,19 @@
         <v>169653</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>145490</v>
+        <v>147321</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>192383</v>
+        <v>192983</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2226515355388741</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1909394512337062</v>
+        <v>0.1933429659704332</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2524810907522606</v>
+        <v>0.2532692323396126</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>38017</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28023</v>
+        <v>27218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52232</v>
+        <v>51822</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1019177419656251</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07512603057178785</v>
+        <v>0.0729675876174625</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1400255557321976</v>
+        <v>0.1389269173340476</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -6310,19 +6310,19 @@
         <v>37273</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26967</v>
+        <v>27038</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51482</v>
+        <v>51918</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09582901123522262</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06933210003759305</v>
+        <v>0.06951474024052258</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1323601363477073</v>
+        <v>0.1334824061530653</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -6331,19 +6331,19 @@
         <v>75290</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59256</v>
+        <v>59526</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93571</v>
+        <v>92430</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09880971295231736</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07776675227884244</v>
+        <v>0.07812090734890312</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1228023018334945</v>
+        <v>0.1213048210728298</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>10621</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5354</v>
+        <v>5234</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20465</v>
+        <v>18741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02847429449951498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01435301936075727</v>
+        <v>0.01403096173469467</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05486327994000928</v>
+        <v>0.05024221931517119</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -6381,19 +6381,19 @@
         <v>19171</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11304</v>
+        <v>11875</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29578</v>
+        <v>29898</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04929007980634779</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02906248545796594</v>
+        <v>0.03053187571060114</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07604428495677565</v>
+        <v>0.07686864664230525</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -6402,19 +6402,19 @@
         <v>29793</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19621</v>
+        <v>20456</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42441</v>
+        <v>43000</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03909983659244715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02575012265319469</v>
+        <v>0.02684617648281189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05569953466374051</v>
+        <v>0.05643291361814331</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>171558</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151429</v>
+        <v>153030</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>192958</v>
+        <v>191462</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4599204298130719</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4059583972304857</v>
+        <v>0.4102487526288439</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5172900370657726</v>
+        <v>0.513279736026432</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>148</v>
@@ -6452,19 +6452,19 @@
         <v>152586</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132813</v>
+        <v>135242</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>172526</v>
+        <v>174706</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3923025022645753</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3414649836977283</v>
+        <v>0.3477088856390428</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4435662291162883</v>
+        <v>0.4491712694167989</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>303</v>
@@ -6473,19 +6473,19 @@
         <v>324145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>295556</v>
+        <v>297299</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>351174</v>
+        <v>349526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4254044543255871</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3878851670739398</v>
+        <v>0.3901728437311257</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4608771824460324</v>
+        <v>0.4587153184283725</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>24956</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15834</v>
+        <v>16954</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36685</v>
+        <v>37116</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1173752296273009</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07447065966396603</v>
+        <v>0.07973879222945236</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1725408613987555</v>
+        <v>0.1745688282236173</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -6598,19 +6598,19 @@
         <v>27539</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18663</v>
+        <v>18508</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38040</v>
+        <v>37524</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1254089531759206</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08499202687873106</v>
+        <v>0.08428521344772202</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1732330690948923</v>
+        <v>0.1708830769489162</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -6619,19 +6619,19 @@
         <v>52495</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39706</v>
+        <v>39464</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>67755</v>
+        <v>68270</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1214568966612755</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09186784348267336</v>
+        <v>0.09130816279090113</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1567637313855177</v>
+        <v>0.1579550134600526</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>55263</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>43173</v>
+        <v>42471</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>70344</v>
+        <v>69260</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2599182429212411</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2030528744208893</v>
+        <v>0.1997543042659259</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3308469738037133</v>
+        <v>0.3257501721924133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>71</v>
@@ -6669,19 +6669,19 @@
         <v>73641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>61116</v>
+        <v>60313</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>89080</v>
+        <v>89052</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3353550601955368</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2783177960356308</v>
+        <v>0.2746590849725609</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4056629666116397</v>
+        <v>0.4055365914569161</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>124</v>
@@ -6690,19 +6690,19 @@
         <v>128904</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>110104</v>
+        <v>110443</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>148500</v>
+        <v>149552</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2982451741820709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2547475431373818</v>
+        <v>0.2555309779352785</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3435827454573914</v>
+        <v>0.346018554537758</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>67975</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54253</v>
+        <v>54153</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>82231</v>
+        <v>82773</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3197054766989617</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2551677216847809</v>
+        <v>0.25469450968378</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3867551396258491</v>
+        <v>0.3893042051344719</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -6740,19 +6740,19 @@
         <v>54347</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>42219</v>
+        <v>42095</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>68538</v>
+        <v>68431</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2474924855326221</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1922604027939896</v>
+        <v>0.1916979212726985</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3121187676326035</v>
+        <v>0.3116290766204018</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>113</v>
@@ -6761,19 +6761,19 @@
         <v>122322</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>102506</v>
+        <v>102405</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>141529</v>
+        <v>142080</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2830164639784547</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2371677436099002</v>
+        <v>0.236933680965331</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3274552770820063</v>
+        <v>0.3287305299674231</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>16934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10280</v>
+        <v>9585</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28702</v>
+        <v>26050</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07964699512175503</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04834767444455738</v>
+        <v>0.04507898252609951</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1349940775837187</v>
+        <v>0.1225207759540563</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -6811,19 +6811,19 @@
         <v>11928</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6114</v>
+        <v>6015</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19893</v>
+        <v>19990</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05432004330900882</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02784116924496573</v>
+        <v>0.02739045286832932</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09059091405534857</v>
+        <v>0.09103179033835304</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -6832,19 +6832,19 @@
         <v>28863</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18536</v>
+        <v>19451</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40651</v>
+        <v>41948</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06677921548513684</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04288582082482827</v>
+        <v>0.04500330598289622</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.094053447600707</v>
+        <v>0.09705396101590512</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>47489</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35765</v>
+        <v>35593</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60700</v>
+        <v>61209</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2233540556307412</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.168211682734817</v>
+        <v>0.1674015601671419</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.285487261609658</v>
+        <v>0.2878836816115494</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -6882,19 +6882,19 @@
         <v>52136</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>40808</v>
+        <v>40407</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66228</v>
+        <v>64737</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2374234577869116</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1858361710848384</v>
+        <v>0.1840117523011511</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3015993207191183</v>
+        <v>0.2948051419400545</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>95</v>
@@ -6903,19 +6903,19 @@
         <v>99625</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>82183</v>
+        <v>82583</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>116626</v>
+        <v>118496</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2305022496930622</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1901453376267311</v>
+        <v>0.1910729653316956</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2698360666048795</v>
+        <v>0.2741626116090147</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>105753</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>90353</v>
+        <v>89529</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>123535</v>
+        <v>123072</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3859854195684115</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.329778109691419</v>
+        <v>0.3267691403149345</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4508885811975206</v>
+        <v>0.4491996491086231</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -7028,19 +7028,19 @@
         <v>66668</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>52446</v>
+        <v>52958</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>82703</v>
+        <v>81892</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2380745784980403</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1872872661616567</v>
+        <v>0.1891135707062392</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2953343984122705</v>
+        <v>0.2924389821221602</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>166</v>
@@ -7049,19 +7049,19 @@
         <v>172421</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>152049</v>
+        <v>150592</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>195334</v>
+        <v>194092</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3112223813508408</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2744501021957867</v>
+        <v>0.2718210404113955</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3525799476617829</v>
+        <v>0.3503390534720618</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>66925</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>52567</v>
+        <v>53349</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82283</v>
+        <v>82298</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2442702730090952</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1918639349636023</v>
+        <v>0.1947173408712487</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3003237551753393</v>
+        <v>0.300378482094325</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>58</v>
@@ -7099,19 +7099,19 @@
         <v>61781</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>47503</v>
+        <v>47145</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>76574</v>
+        <v>76116</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2206207212525056</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1696334447229641</v>
+        <v>0.1683555953720857</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2734486145472436</v>
+        <v>0.271812477399308</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>122</v>
@@ -7120,19 +7120,19 @@
         <v>128706</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>109347</v>
+        <v>107198</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>148590</v>
+        <v>148175</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2323163666624663</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1973724549576306</v>
+        <v>0.1934939088098433</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2682069585805734</v>
+        <v>0.2674577809755113</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>52374</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38415</v>
+        <v>39114</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65993</v>
+        <v>66488</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1911605361730496</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1402094428087508</v>
+        <v>0.1427599691011811</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.240865685285975</v>
+        <v>0.2426747749324796</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -7170,19 +7170,19 @@
         <v>72202</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>58391</v>
+        <v>58587</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>88471</v>
+        <v>87999</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2578364323598214</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2085160037638102</v>
+        <v>0.2092153512925521</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3159340699039065</v>
+        <v>0.3142462809471213</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>119</v>
@@ -7191,19 +7191,19 @@
         <v>124577</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>105745</v>
+        <v>106573</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>145507</v>
+        <v>148318</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2248625456993881</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1908716975524915</v>
+        <v>0.1923664784139588</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2626431256856163</v>
+        <v>0.2677165851217025</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>6908</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2978</v>
+        <v>2932</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13912</v>
+        <v>14099</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02521358614363767</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0108681097288494</v>
+        <v>0.01070076438811035</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05077823369785107</v>
+        <v>0.05145981864840228</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -7241,19 +7241,19 @@
         <v>15182</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8347</v>
+        <v>9000</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23449</v>
+        <v>24135</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05421534531420903</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02980601554054004</v>
+        <v>0.03214002429330415</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08373623266613898</v>
+        <v>0.0861866274095645</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -7262,19 +7262,19 @@
         <v>22090</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14173</v>
+        <v>14897</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32864</v>
+        <v>33713</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03987282013592239</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02558246223924443</v>
+        <v>0.02688873785209602</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05931990794959439</v>
+        <v>0.06085214621771314</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>42021</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30198</v>
+        <v>31067</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>54485</v>
+        <v>54206</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1533701851058061</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1102198111186504</v>
+        <v>0.1133897398485799</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1988631946158825</v>
+        <v>0.1978459820351322</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>61</v>
@@ -7312,19 +7312,19 @@
         <v>64198</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>49055</v>
+        <v>51501</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>79010</v>
+        <v>79934</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2292529225754236</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1751758128302006</v>
+        <v>0.1839111327146402</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2821458858935792</v>
+        <v>0.285446327673572</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>101</v>
@@ -7333,19 +7333,19 @@
         <v>106218</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>88040</v>
+        <v>87316</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>124541</v>
+        <v>126093</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1917258861513824</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1589131178608408</v>
+        <v>0.1576062308181864</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2247982921482306</v>
+        <v>0.2276006544681927</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>221050</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>194750</v>
+        <v>193818</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>248451</v>
+        <v>246676</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.335067430047779</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2952021057529752</v>
+        <v>0.2937892091397882</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3766024614583696</v>
+        <v>0.373911976806993</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>189</v>
@@ -7458,19 +7458,19 @@
         <v>208068</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>183329</v>
+        <v>184199</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>235402</v>
+        <v>234367</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3010787668671066</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2652807757368453</v>
+        <v>0.2665393581889698</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3406313234520213</v>
+        <v>0.3391340251564897</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>393</v>
@@ -7479,19 +7479,19 @@
         <v>429118</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>392259</v>
+        <v>395478</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>467741</v>
+        <v>465196</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3176785717746538</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2903916018048228</v>
+        <v>0.2927743757671858</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3462710970867249</v>
+        <v>0.3443870224424161</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>142417</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>121951</v>
+        <v>122716</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>166240</v>
+        <v>164907</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2158759732560236</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1848533501787221</v>
+        <v>0.186012393681437</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2519866634460512</v>
+        <v>0.2499663310443383</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>150</v>
@@ -7529,19 +7529,19 @@
         <v>158585</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>137002</v>
+        <v>135349</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>182645</v>
+        <v>181901</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2294759147058953</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1982441399759357</v>
+        <v>0.1958524097441042</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2642906159147553</v>
+        <v>0.263214472156284</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>284</v>
@@ -7550,19 +7550,19 @@
         <v>301002</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>268217</v>
+        <v>269545</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>333555</v>
+        <v>331682</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2228338066117379</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1985627568315468</v>
+        <v>0.199545993740273</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2469324698294982</v>
+        <v>0.2455463207642744</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>158357</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>135429</v>
+        <v>136384</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>181389</v>
+        <v>183170</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2400375900592266</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2052835203801905</v>
+        <v>0.2067316569474827</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2749492162580445</v>
+        <v>0.2776493207523417</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>140</v>
@@ -7600,19 +7600,19 @@
         <v>153597</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>133017</v>
+        <v>130405</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>178468</v>
+        <v>175664</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2222572588231236</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1924776890609171</v>
+        <v>0.1886983778471625</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2582466431813244</v>
+        <v>0.254188766713884</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>289</v>
@@ -7621,19 +7621,19 @@
         <v>311954</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>281817</v>
+        <v>282477</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>346063</v>
+        <v>346609</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2309410375331587</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2086310086757557</v>
+        <v>0.2091193508747515</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2561925903112629</v>
+        <v>0.2565966687615622</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>37243</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>25864</v>
+        <v>25533</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>51723</v>
+        <v>51488</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05645306378182134</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03920446176653564</v>
+        <v>0.03870317218172667</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07840152194545348</v>
+        <v>0.07804509658437656</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>29</v>
@@ -7671,19 +7671,19 @@
         <v>29809</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>19702</v>
+        <v>21093</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>43203</v>
+        <v>42837</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04313384311314739</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02850911722711491</v>
+        <v>0.0305221085922139</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06251560241305522</v>
+        <v>0.06198645076856753</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>64</v>
@@ -7692,19 +7692,19 @@
         <v>67052</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>53258</v>
+        <v>51730</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>84393</v>
+        <v>84216</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04963884931022206</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03942726787474803</v>
+        <v>0.03829570997265342</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06247642283017198</v>
+        <v>0.06234567005677859</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>100650</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>82576</v>
+        <v>82347</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>121282</v>
+        <v>122572</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1525659428551494</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1251686940483739</v>
+        <v>0.1248212316269751</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1838399355489501</v>
+        <v>0.1857951184945467</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>126</v>
@@ -7742,19 +7742,19 @@
         <v>141017</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>120313</v>
+        <v>121461</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>164698</v>
+        <v>165077</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2040542164907271</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1740946598154827</v>
+        <v>0.1757568164779048</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2383209775033005</v>
+        <v>0.2388699180319886</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>220</v>
@@ -7763,19 +7763,19 @@
         <v>241667</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>214465</v>
+        <v>211676</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>272161</v>
+        <v>272943</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1789077347702276</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1587694267378635</v>
+        <v>0.15670492796947</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2014820369242272</v>
+        <v>0.2020609420987228</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>153261</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>132726</v>
+        <v>130316</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>180685</v>
+        <v>176218</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1969762636955603</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1705838690391574</v>
+        <v>0.1674863396895895</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2322229225251055</v>
+        <v>0.2264807545531565</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>170</v>
@@ -7888,19 +7888,19 @@
         <v>183104</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>159525</v>
+        <v>159289</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>209332</v>
+        <v>208671</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2239988791004336</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1951541291450953</v>
+        <v>0.1948651807702023</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2560855259702668</v>
+        <v>0.2552759853595644</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>312</v>
@@ -7909,19 +7909,19 @@
         <v>336365</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>305174</v>
+        <v>305292</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>374561</v>
+        <v>374161</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2108209047200442</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1912716329242619</v>
+        <v>0.1913457314439034</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2347612884540627</v>
+        <v>0.2345100353065077</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>185266</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>162394</v>
+        <v>161009</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>212296</v>
+        <v>210797</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2381100168913779</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2087137024502098</v>
+        <v>0.206933658772029</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2728502083795656</v>
+        <v>0.2709232767561889</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>191</v>
@@ -7959,19 +7959,19 @@
         <v>206528</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>182471</v>
+        <v>181525</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>234220</v>
+        <v>232081</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2526550314884289</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2232247226358103</v>
+        <v>0.2220681269066503</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.286532431457188</v>
+        <v>0.2839149466713095</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>363</v>
@@ -7980,19 +7980,19 @@
         <v>391794</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>354351</v>
+        <v>354251</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>428446</v>
+        <v>429377</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2455619419835633</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2220943125522075</v>
+        <v>0.2220317094299008</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2685344029447739</v>
+        <v>0.2691178985785529</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>132915</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>112019</v>
+        <v>111394</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>154900</v>
+        <v>157552</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.170827373119657</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.143970962833984</v>
+        <v>0.1431676309273911</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1990827666202004</v>
+        <v>0.202490859323206</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>125</v>
@@ -8030,19 +8030,19 @@
         <v>136778</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>115964</v>
+        <v>116697</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>161336</v>
+        <v>158784</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1673265016712637</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1418635930184594</v>
+        <v>0.1427607485497734</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.197369978861818</v>
+        <v>0.1942471925646642</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>248</v>
@@ -8051,19 +8051,19 @@
         <v>269693</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>239278</v>
+        <v>238840</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>301474</v>
+        <v>298625</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1690337529333915</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.149970747318507</v>
+        <v>0.1496958519681332</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1889526995902898</v>
+        <v>0.1871670311743935</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>46454</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>34062</v>
+        <v>34317</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>60135</v>
+        <v>62305</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05970399560072717</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04377705136236384</v>
+        <v>0.04410470391362179</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.07728727458369479</v>
+        <v>0.08007610283182763</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>41</v>
@@ -8101,19 +8101,19 @@
         <v>44544</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>30820</v>
+        <v>33375</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>58183</v>
+        <v>59883</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.05449290087819459</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03770394025748135</v>
+        <v>0.0408286463143235</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.07117821813242201</v>
+        <v>0.07325746757600464</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>85</v>
@@ -8122,19 +8122,19 @@
         <v>90998</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>74064</v>
+        <v>73252</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>112903</v>
+        <v>110739</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.05703416758085922</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04642047947596999</v>
+        <v>0.0459114400841397</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0707637504477444</v>
+        <v>0.06940725873929871</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>260173</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>234805</v>
+        <v>233522</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>288713</v>
+        <v>289686</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3343823506926776</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3017794440583055</v>
+        <v>0.300130433687189</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3710628609378032</v>
+        <v>0.3723135338680468</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>225</v>
@@ -8172,19 +8172,19 @@
         <v>246477</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>219442</v>
+        <v>221841</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>271791</v>
+        <v>275397</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3015266868616792</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2684537602963455</v>
+        <v>0.2713876456520729</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3324945361981876</v>
+        <v>0.3369055863995986</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>460</v>
@@ -8193,19 +8193,19 @@
         <v>506649</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>470182</v>
+        <v>462878</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>546299</v>
+        <v>545909</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3175492327821418</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2946924648739816</v>
+        <v>0.2901146436308406</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3424001407691425</v>
+        <v>0.342155696193085</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>877146</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>825332</v>
+        <v>826793</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>930464</v>
+        <v>928152</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2566214711546286</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2414624082803541</v>
+        <v>0.2418901201690112</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2722203208633169</v>
+        <v>0.2715439608468019</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>806</v>
@@ -8318,19 +8318,19 @@
         <v>876202</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>825964</v>
+        <v>821064</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>930665</v>
+        <v>932023</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2471700508566633</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2329982187759166</v>
+        <v>0.2316161964137726</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2625336595734075</v>
+        <v>0.2629169303105608</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1627</v>
@@ -8339,19 +8339,19 @@
         <v>1753348</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1685484</v>
+        <v>1680891</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1826966</v>
+        <v>1831772</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2518096478614562</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2420633300098178</v>
+        <v>0.2414037057679536</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.262382441657674</v>
+        <v>0.263072711561843</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>746755</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>695289</v>
+        <v>698304</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>798279</v>
+        <v>798948</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2184738500825009</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2034166253701287</v>
+        <v>0.2042985967137925</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2335478606798885</v>
+        <v>0.2337435413566643</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>751</v>
@@ -8389,19 +8389,19 @@
         <v>802650</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>755403</v>
+        <v>753450</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>855820</v>
+        <v>854571</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2264215385499772</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2130936994304953</v>
+        <v>0.2125425546808726</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2414203654540171</v>
+        <v>0.2410681157690707</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1454</v>
@@ -8410,19 +8410,19 @@
         <v>1549405</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1477829</v>
+        <v>1475166</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1614764</v>
+        <v>1619673</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2225201067602315</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2122406409941893</v>
+        <v>0.211858101780693</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2319067511984522</v>
+        <v>0.2326117766187615</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>652496</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>606239</v>
+        <v>608572</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>699550</v>
+        <v>698988</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1908969179432635</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.177363761748407</v>
+        <v>0.178046439741522</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2046632895391636</v>
+        <v>0.20449892060557</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>592</v>
@@ -8460,19 +8460,19 @@
         <v>636101</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>586848</v>
+        <v>591609</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>682297</v>
+        <v>688577</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.17943948871538</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1655453814189307</v>
+        <v>0.1668884099462006</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1924708142753669</v>
+        <v>0.19424237906746</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1209</v>
@@ -8481,19 +8481,19 @@
         <v>1288597</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1221978</v>
+        <v>1224153</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1359483</v>
+        <v>1360438</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1850638131716481</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1754961231067025</v>
+        <v>0.1758085594475146</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1952441158567439</v>
+        <v>0.1953812777982391</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>142768</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>122256</v>
+        <v>120339</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>169699</v>
+        <v>167321</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.04176873402635096</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.03576768003591569</v>
+        <v>0.03520700314973575</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.04964769735147893</v>
+        <v>0.0489521162436926</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>142</v>
@@ -8531,19 +8531,19 @@
         <v>150159</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>128328</v>
+        <v>122910</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>177233</v>
+        <v>174032</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.04235862359764457</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.03620026231651442</v>
+        <v>0.03467187031625167</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.04999603155385329</v>
+        <v>0.04909324968638393</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>277</v>
@@ -8552,19 +8552,19 @@
         <v>292926</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>262455</v>
+        <v>261248</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>332492</v>
+        <v>327176</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.04206905337413842</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.03769284264538819</v>
+        <v>0.03751958735442912</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.04775136047677571</v>
+        <v>0.04698790947155846</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>998889</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>942677</v>
+        <v>946304</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1051765</v>
+        <v>1056905</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.292239026793256</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2757936165180874</v>
+        <v>0.2768545218664882</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3077087267893588</v>
+        <v>0.3092123555930639</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>996</v>
@@ -8602,19 +8602,19 @@
         <v>1079824</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1022643</v>
+        <v>1026895</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1135120</v>
+        <v>1137598</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3046102982803349</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2884799602406357</v>
+        <v>0.2896795221345653</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3202089175665994</v>
+        <v>0.3209080061570607</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1921</v>
@@ -8623,19 +8623,19 @@
         <v>2078712</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1994967</v>
+        <v>2000590</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2157278</v>
+        <v>2168814</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2985373788325259</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2865101545559023</v>
+        <v>0.2873177165521702</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3098206546218644</v>
+        <v>0.3114774922701641</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>91273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74157</v>
+        <v>75387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107242</v>
+        <v>107578</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3107045097696059</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2524408613582928</v>
+        <v>0.2566268528676266</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3650662976788059</v>
+        <v>0.3662103080836626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -8992,19 +8992,19 @@
         <v>132010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114886</v>
+        <v>113436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148393</v>
+        <v>150457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4588856143196873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3993578471643623</v>
+        <v>0.394317693002141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.515833230549729</v>
+        <v>0.5230086173349886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -9013,19 +9013,19 @@
         <v>223283</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>200177</v>
+        <v>200849</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250416</v>
+        <v>245769</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3840197244356431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3442799267564555</v>
+        <v>0.3454360035903111</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4306847371913715</v>
+        <v>0.4226929836691459</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>42899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30694</v>
+        <v>31329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56348</v>
+        <v>56622</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1460335368008908</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1044862398017218</v>
+        <v>0.1066492122222554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1918156380039403</v>
+        <v>0.1927479663432277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -9063,19 +9063,19 @@
         <v>29044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20304</v>
+        <v>20004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40898</v>
+        <v>40416</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.100961008430053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07057770039462326</v>
+        <v>0.06953679816808631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1421651843684319</v>
+        <v>0.1404911420760074</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -9084,19 +9084,19 @@
         <v>71943</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56171</v>
+        <v>56816</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89323</v>
+        <v>89649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1237331085304821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09660643311985317</v>
+        <v>0.09771704044188029</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1536237265781973</v>
+        <v>0.1541847456109712</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>28973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19385</v>
+        <v>19361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42410</v>
+        <v>40998</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09862791416737668</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06598751180712462</v>
+        <v>0.06590633505845658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1443686449865879</v>
+        <v>0.1395614186840579</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -9134,19 +9134,19 @@
         <v>23877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15947</v>
+        <v>15921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34513</v>
+        <v>34331</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0829979038983007</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0554349106850155</v>
+        <v>0.0553418511465477</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1199725307619331</v>
+        <v>0.1193375225538283</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -9155,19 +9155,19 @@
         <v>52850</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39779</v>
+        <v>39189</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69728</v>
+        <v>67096</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09089469094982142</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06841475031015418</v>
+        <v>0.06740003158449294</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.119923192187503</v>
+        <v>0.1153962466088925</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>27045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17381</v>
+        <v>18343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39255</v>
+        <v>41619</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09206407878375167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05916748339311812</v>
+        <v>0.06244023096856849</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1336296313254298</v>
+        <v>0.1416780436257504</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -9205,19 +9205,19 @@
         <v>15708</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8579</v>
+        <v>9110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25345</v>
+        <v>25542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05460181414597635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0298200455833701</v>
+        <v>0.03166717689844157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08810362150211408</v>
+        <v>0.08878842929674992</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -9226,19 +9226,19 @@
         <v>42752</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31091</v>
+        <v>31555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57105</v>
+        <v>58581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07352896270310369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05347185649005355</v>
+        <v>0.05427033562892151</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09821307886794134</v>
+        <v>0.1007523298813747</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>103571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87180</v>
+        <v>86126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119967</v>
+        <v>121557</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.352569960478375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2967729124521719</v>
+        <v>0.2931853033474973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.408383448758272</v>
+        <v>0.4137940238133879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>83</v>
@@ -9276,19 +9276,19 @@
         <v>87037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71831</v>
+        <v>71663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103726</v>
+        <v>104301</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3025536592059826</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2496937922502749</v>
+        <v>0.2491113848705005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3605649617025177</v>
+        <v>0.3625639614328195</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>179</v>
@@ -9297,19 +9297,19 @@
         <v>190609</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167975</v>
+        <v>166935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>213636</v>
+        <v>211275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3278235133809497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2888968123458386</v>
+        <v>0.2871080834613948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3674281633297447</v>
+        <v>0.3633675925689603</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>71030</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56601</v>
+        <v>55735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88680</v>
+        <v>87802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1416294306893529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1128583192137296</v>
+        <v>0.1111311996261771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1768214351712403</v>
+        <v>0.175071905688901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -9422,19 +9422,19 @@
         <v>64633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49524</v>
+        <v>50765</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81310</v>
+        <v>82691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.123832016569648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09488406501033073</v>
+        <v>0.09726103942515861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1557842920898614</v>
+        <v>0.1584297294024193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -9443,19 +9443,19 @@
         <v>135663</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116363</v>
+        <v>113310</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160871</v>
+        <v>159310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.132553166076163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1136952229354894</v>
+        <v>0.1107121712155203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1571828383943139</v>
+        <v>0.1556576844650962</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>232401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>209284</v>
+        <v>208349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255834</v>
+        <v>253771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4633918488011244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4172986537449592</v>
+        <v>0.4154335367021681</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5101159070748486</v>
+        <v>0.5060034602483316</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -9493,19 +9493,19 @@
         <v>246691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224345</v>
+        <v>221719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>273046</v>
+        <v>269860</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4726415586886777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4298279931723252</v>
+        <v>0.4247963095047401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5231339830310597</v>
+        <v>0.517030762955444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>447</v>
@@ -9514,19 +9514,19 @@
         <v>479092</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446972</v>
+        <v>444820</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>510070</v>
+        <v>511917</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4681089843338489</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4367250162000139</v>
+        <v>0.4346226648390317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4983766639334622</v>
+        <v>0.5001812463109476</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>79901</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64005</v>
+        <v>65087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98941</v>
+        <v>96425</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1593169357012552</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1276215937202442</v>
+        <v>0.1297788298463891</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1972821525168556</v>
+        <v>0.1922644143022253</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -9564,19 +9564,19 @@
         <v>85704</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69719</v>
+        <v>69174</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>104434</v>
+        <v>103291</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1642018187508481</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1335758140367439</v>
+        <v>0.1325311604702571</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2000871664292692</v>
+        <v>0.1978983755394661</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>161</v>
@@ -9585,19 +9585,19 @@
         <v>165605</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>144019</v>
+        <v>143274</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192398</v>
+        <v>190582</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1618081117150506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.140717153939117</v>
+        <v>0.1399889474423334</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1879877236545741</v>
+        <v>0.1862125709018002</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>9348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4412</v>
+        <v>4448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17069</v>
+        <v>16794</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01863913569757967</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00879713244518027</v>
+        <v>0.008868347241835809</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03403350430997715</v>
+        <v>0.0334865637784646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -9635,19 +9635,19 @@
         <v>4425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11235</v>
+        <v>10181</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008477332717683644</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002084574865481262</v>
+        <v>0.002077139145159911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02152630824445593</v>
+        <v>0.01950567388391838</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -9656,19 +9656,19 @@
         <v>13773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7509</v>
+        <v>7843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23558</v>
+        <v>22756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0134568540373175</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007336752503665133</v>
+        <v>0.007663202645869728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0230175051488574</v>
+        <v>0.02223416477810581</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>108841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91685</v>
+        <v>89968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129379</v>
+        <v>128627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2170226491106878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1828137869217041</v>
+        <v>0.1793893449764978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2579741656031251</v>
+        <v>0.2564747708962493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -9706,19 +9706,19 @@
         <v>120489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101285</v>
+        <v>101885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>142501</v>
+        <v>141328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2308472732731425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1940536098258367</v>
+        <v>0.195203396072583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.273020410381516</v>
+        <v>0.2707728019476165</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -9727,19 +9727,19 @@
         <v>229330</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202797</v>
+        <v>200128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257848</v>
+        <v>256089</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.22407288383762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1981477516192665</v>
+        <v>0.1955402610711742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2519371564349031</v>
+        <v>0.2502181846865352</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>46802</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35577</v>
+        <v>35987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59935</v>
+        <v>61106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.147360223273196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1120171802248913</v>
+        <v>0.1133097285002514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1887104553676711</v>
+        <v>0.1923995638355823</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -9852,19 +9852,19 @@
         <v>60924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47759</v>
+        <v>46940</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75811</v>
+        <v>75673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1811536336505574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.142008965921894</v>
+        <v>0.1395741837063735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2254204719655619</v>
+        <v>0.2250106146306249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -9873,19 +9873,19 @@
         <v>107725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90587</v>
+        <v>90729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127916</v>
+        <v>125363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.164740321377904</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1385318575565233</v>
+        <v>0.1387487808467042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1956165042747007</v>
+        <v>0.1917132446204523</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>164839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146581</v>
+        <v>148867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181451</v>
+        <v>184165</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5190126326031842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4615263223745076</v>
+        <v>0.4687233456924897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5713176497132744</v>
+        <v>0.5798639711937524</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -9923,19 +9923,19 @@
         <v>179797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161231</v>
+        <v>161454</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197346</v>
+        <v>198578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5346197019075201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4794126756065049</v>
+        <v>0.4800767381248797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5867996860076392</v>
+        <v>0.5904626658430573</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>351</v>
@@ -9944,19 +9944,19 @@
         <v>344636</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>318158</v>
+        <v>317441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370447</v>
+        <v>367644</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5270394163047206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4865466433060403</v>
+        <v>0.4854507985899253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5665101572802448</v>
+        <v>0.5622241448542715</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>72194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58924</v>
+        <v>57623</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>89595</v>
+        <v>86315</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2273091231775455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1855296998001025</v>
+        <v>0.1814321476726747</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2820977134027642</v>
+        <v>0.2717727157721813</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -9994,19 +9994,19 @@
         <v>50646</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38328</v>
+        <v>38449</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63000</v>
+        <v>63020</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1505948041648499</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1139675553968433</v>
+        <v>0.114327053777647</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1873283628324359</v>
+        <v>0.1873867971308901</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -10015,19 +10015,19 @@
         <v>122840</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>104401</v>
+        <v>104688</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>144086</v>
+        <v>143763</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1878546148699226</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1596558526661353</v>
+        <v>0.1600952117108257</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2203447440078973</v>
+        <v>0.2198508043987297</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>13510</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7566</v>
+        <v>7877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22409</v>
+        <v>22030</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04253682129427253</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02382286793473766</v>
+        <v>0.02480217366863311</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07055560553478799</v>
+        <v>0.06936322897085712</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -10065,19 +10065,19 @@
         <v>15154</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9065</v>
+        <v>8926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24049</v>
+        <v>24294</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04506043296048554</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02695492505105643</v>
+        <v>0.02654184396271151</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07150855375465667</v>
+        <v>0.07223777036408507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -10086,19 +10086,19 @@
         <v>28664</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20277</v>
+        <v>19653</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39940</v>
+        <v>40213</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04383472576284166</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.031008706941432</v>
+        <v>0.03005424356223658</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06107808331850902</v>
+        <v>0.0614963256276899</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>20257</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12148</v>
+        <v>13179</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29652</v>
+        <v>30330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06378119965180173</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03824998521050145</v>
+        <v>0.04149636657721436</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09336110936052663</v>
+        <v>0.09549734526843125</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -10136,19 +10136,19 @@
         <v>29787</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20075</v>
+        <v>20423</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42203</v>
+        <v>41389</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08857142731658701</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05969161401807789</v>
+        <v>0.06072788361491854</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1254894182110217</v>
+        <v>0.1230670555126912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -10157,19 +10157,19 @@
         <v>50044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38247</v>
+        <v>38555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66037</v>
+        <v>66358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07653092168461112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0584894595437211</v>
+        <v>0.05896061059289921</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1009879788084553</v>
+        <v>0.1014788206891834</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>199044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180380</v>
+        <v>181641</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>219046</v>
+        <v>220021</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5394183306925331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4888362655053166</v>
+        <v>0.4922548283082261</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5936235875448106</v>
+        <v>0.5962667740190999</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -10282,19 +10282,19 @@
         <v>224023</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205303</v>
+        <v>202618</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244130</v>
+        <v>242876</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5784475524361238</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5301104708432132</v>
+        <v>0.5231771421511587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6303670470686062</v>
+        <v>0.6271270896606926</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>398</v>
@@ -10303,19 +10303,19 @@
         <v>423067</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>394454</v>
+        <v>397170</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>451293</v>
+        <v>452594</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5594047578411734</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5215711101634876</v>
+        <v>0.5251621442569491</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5967261380832394</v>
+        <v>0.5984468608203892</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>37899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26324</v>
+        <v>26016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51042</v>
+        <v>50806</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1027070445933889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0713396525777793</v>
+        <v>0.07050444728194774</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1383271874960516</v>
+        <v>0.13768581442762</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>23</v>
@@ -10353,19 +10353,19 @@
         <v>23914</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15222</v>
+        <v>15333</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35154</v>
+        <v>35842</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06174940157528661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03930383736659697</v>
+        <v>0.03959070328166826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0907707050700195</v>
+        <v>0.09254690425810859</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>57</v>
@@ -10374,19 +10374,19 @@
         <v>61813</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48568</v>
+        <v>47265</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79654</v>
+        <v>77543</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08173309451723228</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06421899972174663</v>
+        <v>0.0624963517867724</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1053226856445887</v>
+        <v>0.1025324922774339</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>25012</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16954</v>
+        <v>16498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35221</v>
+        <v>35296</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06778228186062242</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04594586279758752</v>
+        <v>0.04470982189543856</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0954509452485791</v>
+        <v>0.09565399649142883</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -10424,19 +10424,19 @@
         <v>28084</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19318</v>
+        <v>18738</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40832</v>
+        <v>40130</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07251564024193825</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04988003642506657</v>
+        <v>0.04838412631413095</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1054321666934069</v>
+        <v>0.1036192692257425</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>51</v>
@@ -10445,19 +10445,19 @@
         <v>53096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39931</v>
+        <v>40041</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>68837</v>
+        <v>67901</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07020618165237551</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05279882580132728</v>
+        <v>0.05294512172116159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09102021121850737</v>
+        <v>0.08978256421743334</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>10492</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5728</v>
+        <v>5076</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19091</v>
+        <v>19682</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02843382672014857</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01552235223892077</v>
+        <v>0.01375494879481225</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05173624316929026</v>
+        <v>0.05333791042313642</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -10495,19 +10495,19 @@
         <v>13410</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7872</v>
+        <v>7998</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23038</v>
+        <v>22814</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0346255365818464</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0203255943224937</v>
+        <v>0.02065035204902702</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.059487501862341</v>
+        <v>0.05890900274737519</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -10516,19 +10516,19 @@
         <v>23902</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15677</v>
+        <v>14965</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35449</v>
+        <v>34807</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03160453196478141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02072907611771874</v>
+        <v>0.01978757346254614</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04687242070430649</v>
+        <v>0.04602328825371568</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>96551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78601</v>
+        <v>81443</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114481</v>
+        <v>116707</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.261658516133307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2130128190499892</v>
+        <v>0.2207131232433176</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3102489821820151</v>
+        <v>0.3162820589162821</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -10566,19 +10566,19 @@
         <v>97852</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81472</v>
+        <v>81278</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>115684</v>
+        <v>114493</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2526618691648049</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2103690729058267</v>
+        <v>0.2098678629880714</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2987053418810637</v>
+        <v>0.2956309928903271</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>182</v>
@@ -10587,19 +10587,19 @@
         <v>194403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>169512</v>
+        <v>170669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>218690</v>
+        <v>218342</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2570514340244374</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2241387128553114</v>
+        <v>0.225668827913291</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2891653202251697</v>
+        <v>0.2887049329132099</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>12754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6231</v>
+        <v>6957</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21722</v>
+        <v>22097</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06038001878764879</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02950043903493621</v>
+        <v>0.03293937830538192</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1028410239049819</v>
+        <v>0.104614781096018</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -10712,19 +10712,19 @@
         <v>19988</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13055</v>
+        <v>13529</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28870</v>
+        <v>29823</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09143974748268772</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0597237573676276</v>
+        <v>0.06189318888466418</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1320777702024379</v>
+        <v>0.1364333780297186</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -10733,19 +10733,19 @@
         <v>32741</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23793</v>
+        <v>23031</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45973</v>
+        <v>45911</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07617603222566503</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05535644406926354</v>
+        <v>0.05358512221778654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1069607764573505</v>
+        <v>0.1068176750306194</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>46702</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35133</v>
+        <v>36336</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59329</v>
+        <v>60476</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2211026737462247</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1663336365528586</v>
+        <v>0.1720283881996705</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2808874180907305</v>
+        <v>0.2863183976722946</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>54</v>
@@ -10783,19 +10783,19 @@
         <v>52488</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>40864</v>
+        <v>40544</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>64888</v>
+        <v>65286</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2401246352031338</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1869462659677781</v>
+        <v>0.1854830726372791</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2968522986038145</v>
+        <v>0.2986740033341597</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -10804,19 +10804,19 @@
         <v>99190</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>82350</v>
+        <v>82844</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118109</v>
+        <v>119866</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2307766526061481</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1915960693643035</v>
+        <v>0.1927460255573165</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2747958973786425</v>
+        <v>0.2788816209710587</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>31742</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22373</v>
+        <v>22544</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43551</v>
+        <v>43562</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1502765587605086</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1059202216823945</v>
+        <v>0.1067308716737428</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2061883563592229</v>
+        <v>0.2062382470057544</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>35</v>
@@ -10854,19 +10854,19 @@
         <v>33275</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23807</v>
+        <v>24118</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>43557</v>
+        <v>44097</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1522274632573579</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1089114911288674</v>
+        <v>0.1103337792047816</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1992658178085647</v>
+        <v>0.2017356366202956</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>67</v>
@@ -10875,19 +10875,19 @@
         <v>65017</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>52093</v>
+        <v>50279</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81597</v>
+        <v>81244</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1512687282012366</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.121199714568894</v>
+        <v>0.116979440665902</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.189845471498451</v>
+        <v>0.1890232205536861</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>28806</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20670</v>
+        <v>20212</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38955</v>
+        <v>39560</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1363770321986023</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09786039188970433</v>
+        <v>0.09568991361804088</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1844298313057212</v>
+        <v>0.1872919411519991</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -10925,19 +10925,19 @@
         <v>26822</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18914</v>
+        <v>18326</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37423</v>
+        <v>38359</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1227043285380297</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08652816724508364</v>
+        <v>0.08383650414158154</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.171202758445782</v>
+        <v>0.1754864416922923</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>57</v>
@@ -10946,19 +10946,19 @@
         <v>55627</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>43001</v>
+        <v>42202</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68750</v>
+        <v>68864</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1294235197298692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1000469351412756</v>
+        <v>0.09818860631249758</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1599555419908017</v>
+        <v>0.1602215230324138</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>91219</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76875</v>
+        <v>78070</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>105277</v>
+        <v>105195</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4318637165070157</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3639557495644647</v>
+        <v>0.3696114424731723</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4984224490196811</v>
+        <v>0.4980320061454901</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>85</v>
@@ -10996,19 +10996,19 @@
         <v>86015</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>70896</v>
+        <v>71523</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100707</v>
+        <v>99603</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3935038255187908</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3243358749498875</v>
+        <v>0.3272054583275805</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4607172941161131</v>
+        <v>0.4556683040556625</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>179</v>
@@ -11017,19 +11017,19 @@
         <v>177234</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>156591</v>
+        <v>156690</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>196576</v>
+        <v>197012</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4123550672370811</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3643271332884272</v>
+        <v>0.3645580148727433</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4573585922726643</v>
+        <v>0.458373033184158</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>47431</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34823</v>
+        <v>35721</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>61268</v>
+        <v>60997</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1815697209677297</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1333083413795336</v>
+        <v>0.136745334639943</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2345429702820333</v>
+        <v>0.2335029026013065</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -11142,19 +11142,19 @@
         <v>38858</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>29126</v>
+        <v>28605</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>51534</v>
+        <v>51809</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.143374973920306</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1074649063684182</v>
+        <v>0.1055422747995805</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1901436585108907</v>
+        <v>0.1911566868389931</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>85</v>
@@ -11163,19 +11163,19 @@
         <v>86289</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>70376</v>
+        <v>70714</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>104201</v>
+        <v>103597</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1621206627505083</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1322232736632781</v>
+        <v>0.1328572140128218</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.195774654857476</v>
+        <v>0.1946392419149409</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>79774</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>66880</v>
+        <v>65692</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>94813</v>
+        <v>94620</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3053834127260854</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2560230982617261</v>
+        <v>0.2514768993293898</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3629554414923013</v>
+        <v>0.3622151188471574</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>84</v>
@@ -11213,19 +11213,19 @@
         <v>83633</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>69933</v>
+        <v>69083</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>100890</v>
+        <v>98971</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.308579412794992</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2580287560232629</v>
+        <v>0.2548926020127968</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3722507569379679</v>
+        <v>0.3651709725094547</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>163</v>
@@ -11234,19 +11234,19 @@
         <v>163407</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>143295</v>
+        <v>140731</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>184232</v>
+        <v>183928</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3070108404800965</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2692244146947984</v>
+        <v>0.2644070151075295</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3461371745204644</v>
+        <v>0.3455655937892135</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>71317</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56798</v>
+        <v>57133</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85749</v>
+        <v>85655</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.273009809885703</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2174300848543651</v>
+        <v>0.2187101985976316</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3282580521784816</v>
+        <v>0.3278984239000147</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>72</v>
@@ -11284,19 +11284,19 @@
         <v>74467</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>59436</v>
+        <v>59208</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>89734</v>
+        <v>89119</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.274760387021437</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.21930084033467</v>
+        <v>0.2184587758031233</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3310898696140421</v>
+        <v>0.328820681751322</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>139</v>
@@ -11305,19 +11305,19 @@
         <v>145784</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>124075</v>
+        <v>127442</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>166455</v>
+        <v>169929</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2739012171932145</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2331138664242682</v>
+        <v>0.2394385500714688</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3127375858767762</v>
+        <v>0.319263382853201</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>8507</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3771</v>
+        <v>4228</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14994</v>
+        <v>15302</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03256553769886197</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01443672619422299</v>
+        <v>0.01618457745534095</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05739861855169871</v>
+        <v>0.05857763595707919</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -11355,19 +11355,19 @@
         <v>11739</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6763</v>
+        <v>6647</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19510</v>
+        <v>20371</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04331459231593947</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02495413354585736</v>
+        <v>0.0245247490489753</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0719870677015234</v>
+        <v>0.07516259234619112</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -11376,19 +11376,19 @@
         <v>20246</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12936</v>
+        <v>13286</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>30378</v>
+        <v>29895</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03803903877397209</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02430458226596013</v>
+        <v>0.02496122541987403</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05707536580722671</v>
+        <v>0.05616757406270083</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>54197</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>42771</v>
+        <v>42624</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>68796</v>
+        <v>67954</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2074715187216199</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1637341798618379</v>
+        <v>0.1631704142479353</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2633605561313777</v>
+        <v>0.2601347435628749</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>54</v>
@@ -11426,19 +11426,19 @@
         <v>62328</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>48789</v>
+        <v>48594</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>78354</v>
+        <v>76678</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2299706339473255</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1800134698096356</v>
+        <v>0.1792973961821382</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2890987068072811</v>
+        <v>0.2829156017595679</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>110</v>
@@ -11447,19 +11447,19 @@
         <v>116525</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>99431</v>
+        <v>98085</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>137987</v>
+        <v>137960</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2189282408022087</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1868121790417316</v>
+        <v>0.1842827438799237</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.25925093737475</v>
+        <v>0.2591999510205703</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>95833</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>77702</v>
+        <v>79011</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>115968</v>
+        <v>118836</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1474108515154723</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1195221099935876</v>
+        <v>0.1215352925555175</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1783830368048389</v>
+        <v>0.1827939991473924</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>141</v>
@@ -11572,19 +11572,19 @@
         <v>151102</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>128636</v>
+        <v>129996</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>173175</v>
+        <v>176133</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2205671194124914</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1877729086378118</v>
+        <v>0.1897584481643855</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2527882411041316</v>
+        <v>0.2571062277376948</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>225</v>
@@ -11593,19 +11593,19 @@
         <v>246935</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>216830</v>
+        <v>218348</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>275737</v>
+        <v>279493</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1849465664616557</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1623990596747435</v>
+        <v>0.1635359232312846</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2065184316451945</v>
+        <v>0.2093316788031963</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>188170</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>164262</v>
+        <v>163458</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>212401</v>
+        <v>213934</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2894441448256883</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2526694036597385</v>
+        <v>0.2514327278516357</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3267164791450222</v>
+        <v>0.3290738964764323</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>198</v>
@@ -11643,19 +11643,19 @@
         <v>207034</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>184367</v>
+        <v>181878</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>233757</v>
+        <v>230765</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3022118178834805</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.269125336570265</v>
+        <v>0.2654920933764378</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3412206816255696</v>
+        <v>0.3368530965197475</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>361</v>
@@ -11664,19 +11664,19 @@
         <v>395203</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>359416</v>
+        <v>364126</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>430145</v>
+        <v>434306</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2959951041651939</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2691916305249623</v>
+        <v>0.2727188015987722</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3221650758810484</v>
+        <v>0.3252817439672611</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>155068</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>132457</v>
+        <v>134705</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>178907</v>
+        <v>181469</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2385262220414079</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2037458885468788</v>
+        <v>0.2072033053406331</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2751957694176974</v>
+        <v>0.2791364582334437</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>119</v>
@@ -11714,19 +11714,19 @@
         <v>123934</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>103454</v>
+        <v>104656</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>143644</v>
+        <v>144402</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1809101099196007</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1510143149600543</v>
+        <v>0.1527690728056463</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2096806781821409</v>
+        <v>0.2107868832982576</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>256</v>
@@ -11735,19 +11735,19 @@
         <v>279002</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>247463</v>
+        <v>254450</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>311220</v>
+        <v>315512</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2089639982828662</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1853422322839423</v>
+        <v>0.1905750813309296</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2330943269271573</v>
+        <v>0.2363087931354181</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>30195</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>20035</v>
+        <v>19801</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44911</v>
+        <v>42800</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04644611367021402</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03081778320508084</v>
+        <v>0.03045833721240425</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06908202135894782</v>
+        <v>0.06583533367921117</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>30</v>
@@ -11785,19 +11785,19 @@
         <v>32496</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>22183</v>
+        <v>22470</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>44955</v>
+        <v>45972</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04743497338416874</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03238144489354823</v>
+        <v>0.03279991783577442</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06562133619448091</v>
+        <v>0.0671058795946859</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>56</v>
@@ -11806,19 +11806,19 @@
         <v>62691</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>48554</v>
+        <v>48383</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>81062</v>
+        <v>81344</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04695348723384385</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03636518131161182</v>
+        <v>0.03623720391351706</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06071315523042554</v>
+        <v>0.06092387812834239</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>180842</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>157040</v>
+        <v>158437</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>204939</v>
+        <v>206559</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2781726679472175</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2415604767532059</v>
+        <v>0.2437093842944691</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3152389976463839</v>
+        <v>0.3177310337134771</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>153</v>
@@ -11856,19 +11856,19 @@
         <v>170495</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>147866</v>
+        <v>147665</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>195390</v>
+        <v>195446</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2488759794002587</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2158434734129979</v>
+        <v>0.2155506394666004</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2852158951269582</v>
+        <v>0.2852978240208325</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>317</v>
@@ -11877,19 +11877,19 @@
         <v>351337</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>319975</v>
+        <v>315728</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>386145</v>
+        <v>384866</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2631408438564403</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.239651150445614</v>
+        <v>0.2364705650136902</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2892108050191828</v>
+        <v>0.2882527633552794</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>159560</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>139690</v>
+        <v>138293</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>183389</v>
+        <v>183981</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2051651896657745</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1796150592949131</v>
+        <v>0.1778187740578476</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2358047520412814</v>
+        <v>0.236565530091098</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>171</v>
@@ -12002,19 +12002,19 @@
         <v>185592</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>160886</v>
+        <v>161054</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>210331</v>
+        <v>208259</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2246418569161729</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1947376364893637</v>
+        <v>0.1949408706348035</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2545859776195917</v>
+        <v>0.2520786853840019</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>320</v>
@@ -12023,19 +12023,19 @@
         <v>345152</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>313597</v>
+        <v>312494</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>380520</v>
+        <v>381001</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2151977024815952</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1955233269226266</v>
+        <v>0.1948361575938057</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2372489398231349</v>
+        <v>0.237549242815759</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>270334</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>244078</v>
+        <v>242680</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>297185</v>
+        <v>297265</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3475997159273831</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3138399154459627</v>
+        <v>0.3120417614356015</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3821258535342039</v>
+        <v>0.382228077858319</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>274</v>
@@ -12073,19 +12073,19 @@
         <v>295138</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>265980</v>
+        <v>268726</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>323536</v>
+        <v>327197</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3572374978878717</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3219448693531103</v>
+        <v>0.3252687238551789</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.391611146768598</v>
+        <v>0.3960421468109934</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>537</v>
@@ -12094,19 +12094,19 @@
         <v>565472</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>524305</v>
+        <v>526842</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>604811</v>
+        <v>605061</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.352564177751965</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3268970572673394</v>
+        <v>0.3284792835217603</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3770917409462233</v>
+        <v>0.3772474257960295</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>96784</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>79156</v>
+        <v>79436</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>116924</v>
+        <v>116740</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1244467621729768</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1017794851852604</v>
+        <v>0.1021404271702961</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1503431456689867</v>
+        <v>0.1501064885029783</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>101</v>
@@ -12144,19 +12144,19 @@
         <v>109498</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>91148</v>
+        <v>90057</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>132580</v>
+        <v>130639</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1325376792676645</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1103264241259314</v>
+        <v>0.1090061413654429</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1604755652039377</v>
+        <v>0.1581263570470536</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>193</v>
@@ -12165,19 +12165,19 @@
         <v>206282</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>179137</v>
+        <v>179190</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>232793</v>
+        <v>235781</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1286144274311352</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1116898623949404</v>
+        <v>0.1117227244621722</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1451435400917372</v>
+        <v>0.1470064438493393</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>41108</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>28931</v>
+        <v>28814</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>54311</v>
+        <v>53749</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05285691955795693</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.03719937554072938</v>
+        <v>0.03704929637291292</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.06983394771904573</v>
+        <v>0.0691117902431547</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>48</v>
@@ -12215,19 +12215,19 @@
         <v>53346</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>39115</v>
+        <v>40465</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>69909</v>
+        <v>70668</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06457051117341576</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0473445820167335</v>
+        <v>0.04897913239115918</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08461887841301416</v>
+        <v>0.08553684882992958</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>89</v>
@@ -12236,19 +12236,19 @@
         <v>94454</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>76555</v>
+        <v>78654</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>115700</v>
+        <v>115904</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.058890639623641</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04773125301075355</v>
+        <v>0.04903949402983466</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.07213718669340047</v>
+        <v>0.0722647126858376</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>209930</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>185737</v>
+        <v>187703</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>235445</v>
+        <v>234914</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2699314126759087</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2388241917399235</v>
+        <v>0.2413511634720469</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3027384069302044</v>
+        <v>0.3020563834059992</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>161</v>
@@ -12286,19 +12286,19 @@
         <v>182593</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>158186</v>
+        <v>158598</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>206850</v>
+        <v>208437</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2210124547548751</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1914695333331641</v>
+        <v>0.1919680648981021</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2503729843691452</v>
+        <v>0.2522944476517314</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>365</v>
@@ -12307,19 +12307,19 @@
         <v>392523</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>356459</v>
+        <v>358709</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>431227</v>
+        <v>429251</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2447330527116636</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2222476445356965</v>
+        <v>0.2236506059948907</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2688643255587806</v>
+        <v>0.2676321688462288</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>723727</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>674379</v>
+        <v>674055</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>771320</v>
+        <v>774220</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2139840278683497</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1993933926332644</v>
+        <v>0.1992977546135334</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2280559047406883</v>
+        <v>0.2289135462101047</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>826</v>
@@ -12432,19 +12432,19 @@
         <v>877130</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>818856</v>
+        <v>827529</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>930126</v>
+        <v>926313</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.248193781604803</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.231704444923915</v>
+        <v>0.2341586509639744</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.263189530051237</v>
+        <v>0.2621107147652908</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1505</v>
@@ -12453,19 +12453,19 @@
         <v>1600856</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1532383</v>
+        <v>1529335</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1679668</v>
+        <v>1684846</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2314645804527136</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2215641339287224</v>
+        <v>0.2211234215427885</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2428597062923109</v>
+        <v>0.243608394050759</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>1063017</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1007760</v>
+        <v>1003647</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1116359</v>
+        <v>1118917</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3143019249104276</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2979642051243985</v>
+        <v>0.2967480434688293</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3300736077513849</v>
+        <v>0.3308298459257099</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1070</v>
@@ -12503,19 +12503,19 @@
         <v>1117741</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1065291</v>
+        <v>1066373</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1174114</v>
+        <v>1177700</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3162772515289651</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3014359369199781</v>
+        <v>0.3017422862982675</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3322287407073755</v>
+        <v>0.3332433743872321</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>2083</v>
@@ -12524,19 +12524,19 @@
         <v>2180757</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2099408</v>
+        <v>2105631</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2253878</v>
+        <v>2261323</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3153112803443384</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3035491582755914</v>
+        <v>0.3044488451413792</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3258836669987919</v>
+        <v>0.3269601469517224</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>560990</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>521450</v>
+        <v>519341</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>607092</v>
+        <v>610665</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1658676890942804</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1541768800405788</v>
+        <v>0.1535533311541437</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1794987345042345</v>
+        <v>0.1805552008892674</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>511</v>
@@ -12574,19 +12574,19 @@
         <v>529486</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>485321</v>
+        <v>487273</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>571532</v>
+        <v>573928</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1498240207654416</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1373270364400139</v>
+        <v>0.1378792451366715</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1617214455674663</v>
+        <v>0.1623993051194841</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1043</v>
@@ -12595,19 +12595,19 @@
         <v>1090476</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1028092</v>
+        <v>1036049</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1158593</v>
+        <v>1151635</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1576696707738645</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1486497252907846</v>
+        <v>0.1498001820682055</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1675186637381689</v>
+        <v>0.1665124880434002</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>169010</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>145808</v>
+        <v>144729</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>196584</v>
+        <v>195562</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.04997109879541174</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.04311098397508239</v>
+        <v>0.04279205970498177</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05812379841687464</v>
+        <v>0.05782171683701695</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>164</v>
@@ -12645,19 +12645,19 @@
         <v>173099</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>149392</v>
+        <v>146690</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>200774</v>
+        <v>200746</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.04898039931428441</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.04227222785225608</v>
+        <v>0.04150747751076928</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.05681139950954796</v>
+        <v>0.05680343528615499</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>327</v>
@@ -12666,19 +12666,19 @@
         <v>342109</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>308149</v>
+        <v>304191</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>384161</v>
+        <v>379570</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.04946486965068993</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.04455459949168403</v>
+        <v>0.04398240464656292</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.05554510406115446</v>
+        <v>0.0548812852390192</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>865409</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>815389</v>
+        <v>815782</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>917297</v>
+        <v>919278</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2558752593315306</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2410857388365783</v>
+        <v>0.2412021389209874</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.271217033563446</v>
+        <v>0.271802644876958</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>758</v>
@@ -12716,19 +12716,19 @@
         <v>836597</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>783683</v>
+        <v>789334</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>887559</v>
+        <v>892776</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2367245467865059</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2217519588832134</v>
+        <v>0.2233510511623699</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2511447394336224</v>
+        <v>0.252620987601938</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1590</v>
@@ -12737,19 +12737,19 @@
         <v>1702006</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1631285</v>
+        <v>1627512</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1770997</v>
+        <v>1774768</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2460895987783936</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2358641827525747</v>
+        <v>0.2353185884790703</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2560647854715309</v>
+        <v>0.2566101224607316</v>
       </c>
     </row>
     <row r="57">
